--- a/Casus Gemeente Selectielijst/selectielijst.xlsx
+++ b/Casus Gemeente Selectielijst/selectielijst.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="168" windowWidth="18192" windowHeight="7428" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="225" windowWidth="18195" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Processen" sheetId="3" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Producten!$E$1:$P$282</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Producten!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="1125">
   <si>
     <t>Instellen en inrichten organisatie</t>
   </si>
@@ -499,9 +499,6 @@
     <t>Verzoeken behandelen</t>
   </si>
   <si>
-    <t>Het behandelen van een verzoek  tot het doen of laten van de organisatie</t>
-  </si>
-  <si>
     <t>Indien de aanvrager zich in een bepaalde situatie moet bevinden is het proces 'Voorzieningen verstrekken' van toepassing. Wanneer het om een product of dienst gaat dat niet een doen of juist laten van de organisatie inhoudt, is het proces 'Producten en diensten leveren' van toepassing.</t>
   </si>
   <si>
@@ -1171,9 +1168,6 @@
     <t>11.1.10</t>
   </si>
   <si>
-    <t>Ontheffing  verhoging grenswaarde geluidshinder</t>
-  </si>
-  <si>
     <t>Dit wordt ingeschreven bij het Kadaster</t>
   </si>
   <si>
@@ -1576,9 +1570,6 @@
     <t>Inkoopovereenkomst zonder contract of garantiebepalingen</t>
   </si>
   <si>
-    <t>7  jaar</t>
-  </si>
-  <si>
     <t>Inkoop van materialen</t>
   </si>
   <si>
@@ -1840,13 +1831,7 @@
     <t>19.1.9</t>
   </si>
   <si>
-    <t>Agenda, verslag  van intern overleg</t>
-  </si>
-  <si>
     <t>19.1.10</t>
-  </si>
-  <si>
-    <t>Agenda, verslag  van bestuurlijk overleg met derden</t>
   </si>
   <si>
     <t>1 / 10 jaar</t>
@@ -2215,9 +2200,6 @@
     <t>korte resultaatomschrijving. Een generiek resultaat heeft enkel een resultaatomschrijving, een specifiek resultaat heeft verder benoemd in de kolom Product om welk deel van de processen het in het bijzonder gaat.</t>
   </si>
   <si>
-    <t>aanduiding van het product in het geval van een specifiek resultaat om duidelijk te maken om welke deelpopulatie van  de totale processen die onder het generieke resultaat vallen het specifieke resultaat van toepassing is.</t>
-  </si>
-  <si>
     <t>aanduiding blijvend te bewaren of op termijn te vernietigen</t>
   </si>
   <si>
@@ -2281,9 +2263,6 @@
     <t>6.1.13</t>
   </si>
   <si>
-    <t>Overige financiële voorziening  school</t>
-  </si>
-  <si>
     <t>Vergoeding inrichting school</t>
   </si>
   <si>
@@ -3401,13 +3380,31 @@
   </si>
   <si>
     <t>Gemeentelijke publicatie met historisch belang</t>
+  </si>
+  <si>
+    <t>Overige financiële voorziening school</t>
+  </si>
+  <si>
+    <t>Ontheffing verhoging grenswaarde geluidshinder</t>
+  </si>
+  <si>
+    <t>Agenda, verslag van intern overleg</t>
+  </si>
+  <si>
+    <t>Agenda, verslag van bestuurlijk overleg met derden</t>
+  </si>
+  <si>
+    <t>aanduiding van het product in het geval van een specifiek resultaat om duidelijk te maken om welke deelpopulatie van de totale processen die onder het generieke resultaat vallen het specifieke resultaat van toepassing is.</t>
+  </si>
+  <si>
+    <t>Het behandelen van een verzoek tot het doen of laten van de organisatie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3578,11 +3575,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Kantoor">
       <a:dk1>
@@ -3656,6 +3658,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3690,6 +3693,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -3865,66 +3869,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:IV2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="59.21875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="61.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="41.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="59.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="61.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="7" customWidth="1"/>
     <col min="12" max="12" width="43" style="7" customWidth="1"/>
-    <col min="13" max="13" width="32.88671875" style="7" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="7"/>
+    <col min="13" max="13" width="32.85546875" style="7" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>786</v>
       </c>
-      <c r="B1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>791</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>792</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="7" t="s">
-        <v>787</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>789</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>790</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>790</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="86.4">
+    </row>
+    <row r="3" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -3946,7 +3950,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:13" ht="115.2">
+    <row r="4" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -3960,7 +3964,7 @@
         <v>53</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -3971,7 +3975,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="43.2">
+    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -3985,7 +3989,7 @@
         <v>68</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -3995,7 +3999,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:13" ht="43.2">
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -4015,7 +4019,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:13" ht="72">
+    <row r="7" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -4037,7 +4041,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:13" ht="57.6">
+    <row r="8" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -4045,10 +4049,10 @@
         <v>158</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -4059,18 +4063,18 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:13" ht="43.2">
+    <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>7</v>
       </c>
       <c r="B9" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>206</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>207</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -4082,21 +4086,21 @@
       <c r="L9" s="2"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" ht="72">
+    <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>260</v>
-      </c>
       <c r="E10" s="8" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -4106,21 +4110,21 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:13" ht="57.6">
+    <row r="11" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>300</v>
-      </c>
       <c r="D11" s="8" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -4130,15 +4134,15 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:13" ht="28.8">
+    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>338</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>339</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
@@ -4150,15 +4154,15 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:13" ht="43.2">
+    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>346</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>347</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -4169,21 +4173,21 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:13" ht="57.6">
+    <row r="14" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -4193,18 +4197,18 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:13" ht="43.2">
+    <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -4215,18 +4219,18 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:13" ht="43.2">
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -4236,15 +4240,15 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:14" ht="43.2">
+    <row r="17" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
@@ -4256,21 +4260,21 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:14" ht="43.2">
+    <row r="18" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -4280,21 +4284,21 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:14" ht="43.2">
+    <row r="19" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -4304,15 +4308,15 @@
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
     </row>
-    <row r="20" spans="1:14" ht="28.8">
+    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="4"/>
@@ -4324,18 +4328,18 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:14" ht="43.2">
+    <row r="21" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="2"/>
@@ -4346,15 +4350,15 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:14" ht="43.2">
+    <row r="22" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="3"/>
@@ -4368,18 +4372,18 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
     </row>
-    <row r="23" spans="1:14" ht="28.8">
+    <row r="23" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -4389,18 +4393,18 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:14" ht="28.8">
+    <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -4411,18 +4415,18 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:14" ht="43.2">
+    <row r="25" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -4432,18 +4436,18 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:14" ht="28.8">
+    <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -4453,15 +4457,15 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:14" ht="28.8">
+    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>25</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="13"/>
@@ -4475,18 +4479,18 @@
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
     </row>
-    <row r="28" spans="1:14" ht="43.2">
+    <row r="28" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -4497,7 +4501,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="C29" s="3"/>
       <c r="E29" s="3"/>
@@ -4515,35 +4519,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Q282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="C241" sqref="C241"/>
+    <sheetView topLeftCell="G229" workbookViewId="0">
+      <selection activeCell="I235" sqref="I235"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.109375" style="7"/>
-    <col min="5" max="5" width="7.88671875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="22.77734375" style="7" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="7" customWidth="1"/>
+    <col min="1" max="4" width="9.140625" style="7"/>
+    <col min="5" max="5" width="7.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="7" customWidth="1"/>
     <col min="15" max="15" width="43" style="7" customWidth="1"/>
-    <col min="16" max="16" width="32.88671875" style="7" customWidth="1"/>
-    <col min="17" max="16384" width="9.109375" style="7"/>
+    <col min="16" max="16" width="32.85546875" style="7" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4586,77 +4590,77 @@
       </c>
       <c r="Q1" s="8"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>8</v>
@@ -4665,30 +4669,30 @@
         <v>9</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -4722,9 +4726,9 @@
       </c>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -4754,7 +4758,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="6" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>27</v>
@@ -4764,9 +4768,9 @@
       </c>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -4804,9 +4808,9 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -4846,9 +4850,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -4872,7 +4876,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="17" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>27</v>
@@ -4883,9 +4887,9 @@
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -4920,9 +4924,9 @@
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -4954,9 +4958,9 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -4989,9 +4993,9 @@
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="B12" s="4">
         <v>2</v>
@@ -5025,9 +5029,9 @@
       </c>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="B13" s="4">
         <v>2</v>
@@ -5067,9 +5071,9 @@
       </c>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="B14" s="4">
         <v>2</v>
@@ -5101,9 +5105,9 @@
       <c r="O14" s="8"/>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="B15" s="4">
         <v>2</v>
@@ -5137,9 +5141,9 @@
       </c>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="B16" s="4">
         <v>2</v>
@@ -5179,9 +5183,9 @@
       </c>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="B17" s="4">
         <v>2</v>
@@ -5213,9 +5217,9 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="B18" s="4">
         <v>3</v>
@@ -5250,9 +5254,9 @@
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="B19" s="4">
         <v>3</v>
@@ -5293,9 +5297,9 @@
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="B20" s="4">
         <v>3</v>
@@ -5336,9 +5340,9 @@
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="B21" s="4">
         <v>3</v>
@@ -5377,9 +5381,9 @@
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="B22" s="4">
         <v>3</v>
@@ -5420,9 +5424,9 @@
       </c>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="B23" s="4">
         <v>3</v>
@@ -5463,9 +5467,9 @@
       </c>
       <c r="Q23" s="8"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="B24" s="4">
         <v>3</v>
@@ -5504,9 +5508,9 @@
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="B25" s="4">
         <v>3</v>
@@ -5541,9 +5545,9 @@
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="B26" s="4">
         <v>3</v>
@@ -5564,7 +5568,7 @@
         <v>98</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>26</v>
@@ -5582,9 +5586,9 @@
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="B27" s="4">
         <v>3</v>
@@ -5605,7 +5609,7 @@
         <v>101</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>26</v>
@@ -5623,9 +5627,9 @@
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="B28" s="4">
         <v>3</v>
@@ -5657,9 +5661,9 @@
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="B29" s="4">
         <v>3</v>
@@ -5691,9 +5695,9 @@
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="B30" s="4">
         <v>4</v>
@@ -5728,9 +5732,9 @@
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="B31" s="4">
         <v>4</v>
@@ -5769,9 +5773,9 @@
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="B32" s="4">
         <v>4</v>
@@ -5809,9 +5813,9 @@
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="B33" s="4">
         <v>4</v>
@@ -5849,9 +5853,9 @@
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="B34" s="4">
         <v>4</v>
@@ -5889,9 +5893,9 @@
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="B35" s="4">
         <v>4</v>
@@ -5925,9 +5929,9 @@
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="B36" s="4">
         <v>4</v>
@@ -5967,9 +5971,9 @@
       </c>
       <c r="P36" s="4"/>
     </row>
-    <row r="37" spans="1:17" s="10" customFormat="1">
+    <row r="37" spans="1:17" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="B37" s="4">
         <v>4</v>
@@ -5981,13 +5985,13 @@
         <v>7</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>109</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>24</v>
@@ -6003,9 +6007,9 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="B38" s="4">
         <v>4</v>
@@ -6037,9 +6041,9 @@
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="B39" s="4">
         <v>5</v>
@@ -6073,9 +6077,9 @@
       </c>
       <c r="P39" s="4"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="B40" s="4">
         <v>5</v>
@@ -6117,9 +6121,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="B41" s="4">
         <v>5</v>
@@ -6161,9 +6165,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="B42" s="4">
         <v>5</v>
@@ -6203,9 +6207,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="B43" s="4">
         <v>5</v>
@@ -6245,9 +6249,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="B44" s="4">
         <v>5</v>
@@ -6287,9 +6291,9 @@
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="B45" s="4">
         <v>5</v>
@@ -6329,9 +6333,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="B46" s="4">
         <v>5</v>
@@ -6364,9 +6368,9 @@
       <c r="P46" s="5"/>
       <c r="Q46" s="10"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="B47" s="4">
         <v>5</v>
@@ -6407,9 +6411,9 @@
       </c>
       <c r="Q47" s="10"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B48" s="4">
         <v>5</v>
@@ -6441,9 +6445,9 @@
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="B49" s="4">
         <v>5</v>
@@ -6475,9 +6479,9 @@
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="B50" s="4">
         <v>6</v>
@@ -6487,10 +6491,10 @@
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="11"/>
@@ -6507,14 +6511,14 @@
       <c r="M50" s="11"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P50" s="5"/>
       <c r="Q50" s="10"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="B51" s="4">
         <v>6</v>
@@ -6526,13 +6530,13 @@
         <v>1</v>
       </c>
       <c r="E51" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G51" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="H51" s="11" t="s">
         <v>34</v>
@@ -6542,7 +6546,7 @@
       </c>
       <c r="J51" s="5"/>
       <c r="K51" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L51" s="5" t="s">
         <v>94</v>
@@ -6550,16 +6554,16 @@
       <c r="M51" s="11"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P51" s="5" t="s">
         <v>136</v>
       </c>
       <c r="Q51" s="10"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="B52" s="4">
         <v>6</v>
@@ -6571,13 +6575,13 @@
         <v>2</v>
       </c>
       <c r="E52" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G52" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>79</v>
@@ -6595,14 +6599,14 @@
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P52" s="5"/>
       <c r="Q52" s="10"/>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="B53" s="4">
         <v>6</v>
@@ -6614,13 +6618,13 @@
         <v>3</v>
       </c>
       <c r="E53" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>79</v>
@@ -6641,9 +6645,9 @@
       <c r="P53" s="5"/>
       <c r="Q53" s="10"/>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="B54" s="4">
         <v>6</v>
@@ -6655,13 +6659,13 @@
         <v>4</v>
       </c>
       <c r="E54" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>24</v>
@@ -6673,7 +6677,7 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N54" s="4" t="s">
         <v>47</v>
@@ -6681,9 +6685,9 @@
       <c r="O54" s="5"/>
       <c r="P54" s="4"/>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="B55" s="4">
         <v>6</v>
@@ -6695,13 +6699,13 @@
         <v>5</v>
       </c>
       <c r="E55" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>24</v>
@@ -6719,13 +6723,13 @@
         <v>21</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P55" s="4"/>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="B56" s="4">
         <v>6</v>
@@ -6737,13 +6741,13 @@
         <v>6</v>
       </c>
       <c r="E56" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G56" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>79</v>
@@ -6752,7 +6756,7 @@
         <v>19</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K56" s="5" t="s">
         <v>71</v>
@@ -6766,9 +6770,9 @@
       <c r="P56" s="5"/>
       <c r="Q56" s="10"/>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="B57" s="4">
         <v>6</v>
@@ -6780,13 +6784,13 @@
         <v>7</v>
       </c>
       <c r="E57" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G57" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>34</v>
@@ -6809,9 +6813,9 @@
       </c>
       <c r="Q57" s="10"/>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="B58" s="4">
         <v>6</v>
@@ -6823,13 +6827,13 @@
         <v>8</v>
       </c>
       <c r="E58" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>79</v>
@@ -6839,7 +6843,7 @@
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L58" s="4" t="s">
         <v>47</v>
@@ -6849,9 +6853,9 @@
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="B59" s="4">
         <v>6</v>
@@ -6863,16 +6867,16 @@
         <v>9</v>
       </c>
       <c r="E59" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H59" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>1118</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>26</v>
@@ -6881,7 +6885,7 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N59" s="4" t="s">
         <v>47</v>
@@ -6889,9 +6893,9 @@
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B60" s="4">
         <v>6</v>
@@ -6903,13 +6907,13 @@
         <v>10</v>
       </c>
       <c r="E60" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>24</v>
@@ -6921,7 +6925,7 @@
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N60" s="4" t="s">
         <v>21</v>
@@ -6929,9 +6933,9 @@
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="B61" s="4">
         <v>6</v>
@@ -6943,13 +6947,13 @@
         <v>11</v>
       </c>
       <c r="E61" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>79</v>
@@ -6969,9 +6973,9 @@
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="B62" s="4">
         <v>6</v>
@@ -6983,13 +6987,13 @@
         <v>12</v>
       </c>
       <c r="E62" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G62" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>79</v>
@@ -7009,9 +7013,9 @@
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
     </row>
-    <row r="63" spans="1:17" s="10" customFormat="1">
+    <row r="63" spans="1:17" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="B63" s="4">
         <v>6</v>
@@ -7023,13 +7027,13 @@
         <v>13</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>79</v>
@@ -7049,9 +7053,9 @@
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="B64" s="4">
         <v>6</v>
@@ -7061,10 +7065,10 @@
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="4"/>
@@ -7083,9 +7087,9 @@
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="B65" s="4">
         <v>6</v>
@@ -7097,13 +7101,13 @@
         <v>1</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>79</v>
@@ -7123,9 +7127,9 @@
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="B66" s="4">
         <v>6</v>
@@ -7137,13 +7141,13 @@
         <v>2</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>79</v>
@@ -7163,9 +7167,9 @@
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="B67" s="4">
         <v>6</v>
@@ -7177,16 +7181,16 @@
         <v>3</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>26</v>
@@ -7195,7 +7199,7 @@
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N67" s="4" t="s">
         <v>47</v>
@@ -7203,9 +7207,9 @@
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="B68" s="4">
         <v>6</v>
@@ -7215,7 +7219,7 @@
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>49</v>
@@ -7237,9 +7241,9 @@
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="B69" s="24">
         <v>7</v>
@@ -7249,10 +7253,10 @@
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
@@ -7269,9 +7273,9 @@
       <c r="O69" s="4"/>
       <c r="P69" s="5"/>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="B70" s="24">
         <v>7</v>
@@ -7283,13 +7287,13 @@
         <v>1</v>
       </c>
       <c r="E70" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G70" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>34</v>
@@ -7307,9 +7311,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="B71" s="24">
         <v>7</v>
@@ -7321,13 +7325,13 @@
         <v>2</v>
       </c>
       <c r="E71" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G71" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>34</v>
@@ -7339,22 +7343,22 @@
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
       <c r="M71" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="N71" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="N71" s="5" t="s">
+      <c r="O71" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="O71" s="5" t="s">
+      <c r="P71" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="P71" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="Q71" s="10"/>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="B72" s="24">
         <v>7</v>
@@ -7366,13 +7370,13 @@
         <v>3</v>
       </c>
       <c r="E72" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G72" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>34</v>
@@ -7384,22 +7388,22 @@
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
       <c r="M72" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="N72" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="N72" s="5" t="s">
+      <c r="O72" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="O72" s="5" t="s">
+      <c r="P72" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="P72" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="Q72" s="10"/>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="B73" s="24">
         <v>7</v>
@@ -7411,13 +7415,13 @@
         <v>4</v>
       </c>
       <c r="E73" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G73" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>222</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>34</v>
@@ -7440,9 +7444,9 @@
       </c>
       <c r="Q73" s="10"/>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="B74" s="24">
         <v>7</v>
@@ -7454,13 +7458,13 @@
         <v>5</v>
       </c>
       <c r="E74" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G74" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>34</v>
@@ -7472,22 +7476,22 @@
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
       <c r="M74" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="N74" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="N74" s="5" t="s">
+      <c r="O74" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="O74" s="5" t="s">
+      <c r="P74" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="P74" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="Q74" s="10"/>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="B75" s="24">
         <v>7</v>
@@ -7499,13 +7503,13 @@
         <v>6</v>
       </c>
       <c r="E75" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G75" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>34</v>
@@ -7517,22 +7521,22 @@
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
       <c r="M75" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="N75" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="N75" s="5" t="s">
+      <c r="O75" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="O75" s="5" t="s">
+      <c r="P75" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="P75" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="Q75" s="10"/>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="B76" s="24">
         <v>7</v>
@@ -7544,13 +7548,13 @@
         <v>7</v>
       </c>
       <c r="E76" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G76" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>34</v>
@@ -7571,9 +7575,9 @@
       <c r="P76" s="5"/>
       <c r="Q76" s="10"/>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="B77" s="24">
         <v>7</v>
@@ -7585,13 +7589,13 @@
         <v>8</v>
       </c>
       <c r="E77" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G77" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>230</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>34</v>
@@ -7614,9 +7618,9 @@
       </c>
       <c r="Q77" s="10"/>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="B78" s="24">
         <v>7</v>
@@ -7628,13 +7632,13 @@
         <v>9</v>
       </c>
       <c r="E78" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G78" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>232</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>34</v>
@@ -7647,7 +7651,7 @@
         <v>20</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
@@ -7657,9 +7661,9 @@
       </c>
       <c r="Q78" s="10"/>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="B79" s="24">
         <v>7</v>
@@ -7671,13 +7675,13 @@
         <v>10</v>
       </c>
       <c r="E79" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G79" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>34</v>
@@ -7700,9 +7704,9 @@
       </c>
       <c r="Q79" s="10"/>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="B80" s="24">
         <v>7</v>
@@ -7714,13 +7718,13 @@
         <v>11</v>
       </c>
       <c r="E80" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G80" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>34</v>
@@ -7743,9 +7747,9 @@
       </c>
       <c r="Q80" s="10"/>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="B81" s="24">
         <v>7</v>
@@ -7757,13 +7761,13 @@
         <v>12</v>
       </c>
       <c r="E81" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G81" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>34</v>
@@ -7776,7 +7780,7 @@
         <v>20</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
@@ -7786,9 +7790,9 @@
       </c>
       <c r="Q81" s="10"/>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="B82" s="24">
         <v>7</v>
@@ -7800,13 +7804,13 @@
         <v>13</v>
       </c>
       <c r="E82" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G82" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>242</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>34</v>
@@ -7829,9 +7833,9 @@
       </c>
       <c r="Q82" s="10"/>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="B83" s="24">
         <v>7</v>
@@ -7843,13 +7847,13 @@
         <v>14</v>
       </c>
       <c r="E83" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G83" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>244</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>34</v>
@@ -7872,9 +7876,9 @@
       </c>
       <c r="Q83" s="10"/>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="B84" s="24">
         <v>7</v>
@@ -7886,13 +7890,13 @@
         <v>15</v>
       </c>
       <c r="E84" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G84" s="5" t="s">
         <v>245</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>246</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>34</v>
@@ -7915,9 +7919,9 @@
       </c>
       <c r="Q84" s="10"/>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="B85" s="24">
         <v>7</v>
@@ -7929,13 +7933,13 @@
         <v>16</v>
       </c>
       <c r="E85" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G85" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>248</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>34</v>
@@ -7956,9 +7960,9 @@
       <c r="P85" s="5"/>
       <c r="Q85" s="10"/>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="B86" s="24">
         <v>7</v>
@@ -7970,13 +7974,13 @@
         <v>17</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>34</v>
@@ -7999,9 +8003,9 @@
       </c>
       <c r="Q86" s="10"/>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="B87" s="24">
         <v>7</v>
@@ -8013,13 +8017,13 @@
         <v>18</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>34</v>
@@ -8042,9 +8046,9 @@
       </c>
       <c r="Q87" s="10"/>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="B88" s="24">
         <v>7</v>
@@ -8056,13 +8060,13 @@
         <v>19</v>
       </c>
       <c r="E88" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G88" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>252</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>34</v>
@@ -8085,9 +8089,9 @@
       </c>
       <c r="Q88" s="10"/>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="B89" s="24">
         <v>7</v>
@@ -8097,10 +8101,10 @@
       </c>
       <c r="D89" s="24"/>
       <c r="E89" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
@@ -8119,9 +8123,9 @@
       <c r="O89" s="4"/>
       <c r="P89" s="5"/>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="B90" s="24">
         <v>7</v>
@@ -8131,7 +8135,7 @@
       </c>
       <c r="D90" s="24"/>
       <c r="E90" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>49</v>
@@ -8153,9 +8157,9 @@
       <c r="O90" s="4"/>
       <c r="P90" s="5"/>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="B91" s="4">
         <v>8</v>
@@ -8165,10 +8169,10 @@
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
@@ -8185,13 +8189,13 @@
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P91" s="4"/>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="B92" s="4">
         <v>8</v>
@@ -8203,13 +8207,13 @@
         <v>1</v>
       </c>
       <c r="E92" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="G92" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>266</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>34</v>
@@ -8228,12 +8232,12 @@
       <c r="N92" s="4"/>
       <c r="O92" s="5"/>
       <c r="P92" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="B93" s="4">
         <v>8</v>
@@ -8245,13 +8249,13 @@
         <v>2</v>
       </c>
       <c r="E93" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="G93" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>269</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>34</v>
@@ -8270,12 +8274,12 @@
       <c r="N93" s="4"/>
       <c r="O93" s="5"/>
       <c r="P93" s="9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" s="10" customFormat="1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="B94" s="4">
         <v>8</v>
@@ -8287,13 +8291,13 @@
         <v>3</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>752</v>
+        <v>1119</v>
       </c>
       <c r="H94" s="9" t="s">
         <v>79</v>
@@ -8313,9 +8317,9 @@
       <c r="O94" s="9"/>
       <c r="P94" s="5"/>
     </row>
-    <row r="95" spans="1:17" s="10" customFormat="1">
+    <row r="95" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="B95" s="4">
         <v>8</v>
@@ -8327,13 +8331,13 @@
         <v>4</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>79</v>
@@ -8353,9 +8357,9 @@
       <c r="O95" s="9"/>
       <c r="P95" s="5"/>
     </row>
-    <row r="96" spans="1:17" s="10" customFormat="1">
+    <row r="96" spans="1:17" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="B96" s="4">
         <v>8</v>
@@ -8367,13 +8371,13 @@
         <v>5</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>79</v>
@@ -8386,16 +8390,16 @@
         <v>20</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
       <c r="O96" s="5"/>
       <c r="P96" s="5"/>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="B97" s="4">
         <v>8</v>
@@ -8407,13 +8411,13 @@
         <v>6</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>79</v>
@@ -8422,10 +8426,10 @@
         <v>19</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="L97" s="4" t="s">
         <v>21</v>
@@ -8435,9 +8439,9 @@
       <c r="O97" s="5"/>
       <c r="P97" s="4"/>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="B98" s="4">
         <v>8</v>
@@ -8449,13 +8453,13 @@
         <v>7</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>34</v>
@@ -8473,15 +8477,15 @@
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P98" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="B99" s="4">
         <v>8</v>
@@ -8493,13 +8497,13 @@
         <v>8</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>34</v>
@@ -8521,9 +8525,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="B100" s="4">
         <v>8</v>
@@ -8535,13 +8539,13 @@
         <v>9</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>79</v>
@@ -8561,9 +8565,9 @@
       <c r="O100" s="5"/>
       <c r="P100" s="4"/>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="B101" s="4">
         <v>8</v>
@@ -8575,13 +8579,13 @@
         <v>10</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H101" s="8" t="s">
         <v>79</v>
@@ -8601,9 +8605,9 @@
       <c r="O101" s="9"/>
       <c r="P101" s="8"/>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="B102" s="4">
         <v>8</v>
@@ -8615,13 +8619,13 @@
         <v>11</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>34</v>
@@ -8643,9 +8647,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="B103" s="4">
         <v>8</v>
@@ -8657,13 +8661,13 @@
         <v>12</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H103" s="4" t="s">
         <v>34</v>
@@ -8685,9 +8689,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="B104" s="4">
         <v>8</v>
@@ -8699,13 +8703,13 @@
         <v>13</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>34</v>
@@ -8727,9 +8731,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="B105" s="4">
         <v>8</v>
@@ -8741,13 +8745,13 @@
         <v>14</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>79</v>
@@ -8767,9 +8771,9 @@
       <c r="O105" s="5"/>
       <c r="P105" s="4"/>
     </row>
-    <row r="106" spans="1:16" s="10" customFormat="1">
+    <row r="106" spans="1:16" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="B106" s="4">
         <v>8</v>
@@ -8781,13 +8785,13 @@
         <v>15</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="H106" s="5" t="s">
         <v>79</v>
@@ -8805,13 +8809,13 @@
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
       <c r="O106" s="5" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="P106" s="5"/>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="B107" s="4">
         <v>8</v>
@@ -8821,10 +8825,10 @@
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
@@ -8843,9 +8847,9 @@
       <c r="O107" s="5"/>
       <c r="P107" s="4"/>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="B108" s="4">
         <v>8</v>
@@ -8855,10 +8859,10 @@
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F108" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="8"/>
@@ -8877,9 +8881,9 @@
       <c r="O108" s="5"/>
       <c r="P108" s="4"/>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="B109" s="4">
         <v>8</v>
@@ -8891,13 +8895,13 @@
         <v>1</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>34</v>
@@ -8916,12 +8920,12 @@
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
       <c r="P109" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="B110" s="4">
         <v>8</v>
@@ -8933,13 +8937,13 @@
         <v>2</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H110" s="4" t="s">
         <v>34</v>
@@ -8958,12 +8962,12 @@
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
       <c r="P110" s="9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" s="10" customFormat="1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="B111" s="4">
         <v>8</v>
@@ -8975,13 +8979,13 @@
         <v>3</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>79</v>
@@ -9001,9 +9005,9 @@
       <c r="O111" s="5"/>
       <c r="P111" s="9"/>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="B112" s="4">
         <v>8</v>
@@ -9013,7 +9017,7 @@
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>49</v>
@@ -9035,9 +9039,9 @@
       <c r="O112" s="4"/>
       <c r="P112" s="4"/>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="B113" s="4">
         <v>9</v>
@@ -9047,10 +9051,10 @@
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="F113" s="8" t="s">
         <v>301</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>302</v>
       </c>
       <c r="G113" s="8"/>
       <c r="H113" s="6"/>
@@ -9067,14 +9071,14 @@
       <c r="M113" s="6"/>
       <c r="N113" s="8"/>
       <c r="O113" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P113" s="8"/>
       <c r="Q113" s="8"/>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="B114" s="4">
         <v>9</v>
@@ -9086,13 +9090,13 @@
         <v>1</v>
       </c>
       <c r="E114" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="G114" s="8" t="s">
         <v>304</v>
-      </c>
-      <c r="F114" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="G114" s="8" t="s">
-        <v>305</v>
       </c>
       <c r="H114" s="6" t="s">
         <v>79</v>
@@ -9110,14 +9114,14 @@
       <c r="M114" s="6"/>
       <c r="N114" s="8"/>
       <c r="O114" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P114" s="8"/>
       <c r="Q114" s="8"/>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="B115" s="4">
         <v>9</v>
@@ -9129,13 +9133,13 @@
         <v>2</v>
       </c>
       <c r="E115" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="G115" s="8" t="s">
         <v>307</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="G115" s="8" t="s">
-        <v>308</v>
       </c>
       <c r="H115" s="8" t="s">
         <v>34</v>
@@ -9147,22 +9151,22 @@
       <c r="K115" s="8"/>
       <c r="L115" s="8"/>
       <c r="M115" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N115" s="8" t="s">
         <v>27</v>
       </c>
       <c r="O115" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="P115" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="P115" s="9" t="s">
-        <v>311</v>
-      </c>
       <c r="Q115" s="8"/>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="B116" s="4">
         <v>9</v>
@@ -9174,16 +9178,16 @@
         <v>3</v>
       </c>
       <c r="E116" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="G116" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="F116" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="G116" s="8" t="s">
-        <v>313</v>
-      </c>
       <c r="H116" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I116" s="8" t="s">
         <v>26</v>
@@ -9192,20 +9196,20 @@
       <c r="K116" s="8"/>
       <c r="L116" s="8"/>
       <c r="M116" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N116" s="8" t="s">
         <v>27</v>
       </c>
       <c r="O116" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P116" s="8"/>
       <c r="Q116" s="8"/>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="B117" s="4">
         <v>9</v>
@@ -9217,13 +9221,13 @@
         <v>4</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="H117" s="8" t="s">
         <v>79</v>
@@ -9244,9 +9248,9 @@
       <c r="P117" s="8"/>
       <c r="Q117" s="8"/>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="B118" s="4">
         <v>9</v>
@@ -9258,13 +9262,13 @@
         <v>5</v>
       </c>
       <c r="E118" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="G118" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>318</v>
       </c>
       <c r="H118" s="4" t="s">
         <v>34</v>
@@ -9286,9 +9290,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="B119" s="4">
         <v>9</v>
@@ -9300,13 +9304,13 @@
         <v>6</v>
       </c>
       <c r="E119" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="G119" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>320</v>
       </c>
       <c r="H119" s="4" t="s">
         <v>34</v>
@@ -9325,12 +9329,12 @@
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
       <c r="P119" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="B120" s="4">
         <v>9</v>
@@ -9342,13 +9346,13 @@
         <v>7</v>
       </c>
       <c r="E120" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="G120" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>323</v>
       </c>
       <c r="H120" s="4" t="s">
         <v>24</v>
@@ -9364,9 +9368,9 @@
       <c r="O120" s="4"/>
       <c r="P120" s="4"/>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="B121" s="4">
         <v>9</v>
@@ -9378,13 +9382,13 @@
         <v>8</v>
       </c>
       <c r="E121" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="G121" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>325</v>
       </c>
       <c r="H121" s="4" t="s">
         <v>24</v>
@@ -9400,9 +9404,9 @@
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="B122" s="4">
         <v>9</v>
@@ -9414,13 +9418,13 @@
         <v>9</v>
       </c>
       <c r="E122" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="G122" s="4" t="s">
         <v>326</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="G122" s="4" t="s">
-        <v>327</v>
       </c>
       <c r="H122" s="4" t="s">
         <v>24</v>
@@ -9436,9 +9440,9 @@
       <c r="O122" s="4"/>
       <c r="P122" s="4"/>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="B123" s="4">
         <v>9</v>
@@ -9450,16 +9454,16 @@
         <v>10</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I123" s="4" t="s">
         <v>26</v>
@@ -9472,9 +9476,9 @@
       <c r="O123" s="4"/>
       <c r="P123" s="4"/>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="B124" s="4">
         <v>9</v>
@@ -9486,13 +9490,13 @@
         <v>11</v>
       </c>
       <c r="E124" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="F124" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="F124" s="9" t="s">
-        <v>330</v>
-      </c>
       <c r="G124" s="9" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="H124" s="9" t="s">
         <v>34</v>
@@ -9511,13 +9515,13 @@
       <c r="N124" s="9"/>
       <c r="O124" s="9"/>
       <c r="P124" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q124" s="9"/>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="B125" s="4">
         <v>9</v>
@@ -9529,13 +9533,13 @@
         <v>12</v>
       </c>
       <c r="E125" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="G125" s="9" t="s">
         <v>331</v>
-      </c>
-      <c r="F125" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="G125" s="9" t="s">
-        <v>332</v>
       </c>
       <c r="H125" s="9" t="s">
         <v>24</v>
@@ -9552,9 +9556,9 @@
       <c r="P125" s="9"/>
       <c r="Q125" s="9"/>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="B126" s="4">
         <v>9</v>
@@ -9564,10 +9568,10 @@
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F126" s="4" t="s">
         <v>333</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>334</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
@@ -9586,9 +9590,9 @@
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="B127" s="4">
         <v>9</v>
@@ -9598,10 +9602,10 @@
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
@@ -9620,9 +9624,9 @@
       <c r="O127" s="4"/>
       <c r="P127" s="4"/>
     </row>
-    <row r="128" spans="1:17">
+    <row r="128" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="B128" s="4">
         <v>9</v>
@@ -9634,13 +9638,13 @@
         <v>1</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H128" s="8" t="s">
         <v>34</v>
@@ -9652,22 +9656,22 @@
       <c r="K128" s="8"/>
       <c r="L128" s="8"/>
       <c r="M128" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N128" s="8" t="s">
         <v>27</v>
       </c>
       <c r="O128" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="P128" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="P128" s="9" t="s">
-        <v>311</v>
-      </c>
       <c r="Q128" s="8"/>
     </row>
-    <row r="129" spans="1:17">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="B129" s="4">
         <v>9</v>
@@ -9677,7 +9681,7 @@
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>49</v>
@@ -9699,9 +9703,9 @@
       <c r="O129" s="4"/>
       <c r="P129" s="4"/>
     </row>
-    <row r="130" spans="1:17">
+    <row r="130" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="B130" s="4">
         <v>10</v>
@@ -9711,10 +9715,10 @@
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="F130" s="8" t="s">
         <v>340</v>
-      </c>
-      <c r="F130" s="8" t="s">
-        <v>341</v>
       </c>
       <c r="G130" s="8"/>
       <c r="H130" s="8" t="s">
@@ -9733,16 +9737,16 @@
       <c r="M130" s="8"/>
       <c r="N130" s="8"/>
       <c r="O130" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P130" s="9" t="s">
         <v>136</v>
       </c>
       <c r="Q130" s="8"/>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="B131" s="4">
         <v>10</v>
@@ -9752,10 +9756,10 @@
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="F131" s="8" t="s">
         <v>343</v>
-      </c>
-      <c r="F131" s="8" t="s">
-        <v>344</v>
       </c>
       <c r="G131" s="8"/>
       <c r="H131" s="8"/>
@@ -9775,9 +9779,9 @@
       <c r="P131" s="8"/>
       <c r="Q131" s="8"/>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="B132" s="4">
         <v>10</v>
@@ -9787,7 +9791,7 @@
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F132" s="8" t="s">
         <v>49</v>
@@ -9810,9 +9814,9 @@
       <c r="P132" s="8"/>
       <c r="Q132" s="8"/>
     </row>
-    <row r="133" spans="1:17">
+    <row r="133" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="B133" s="4">
         <v>11</v>
@@ -9822,10 +9826,10 @@
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G133" s="4"/>
       <c r="H133" s="12"/>
@@ -9842,13 +9846,13 @@
       <c r="M133" s="12"/>
       <c r="N133" s="4"/>
       <c r="O133" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P133" s="4"/>
     </row>
-    <row r="134" spans="1:17">
+    <row r="134" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="B134" s="4">
         <v>11</v>
@@ -9860,13 +9864,13 @@
         <v>1</v>
       </c>
       <c r="E134" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G134" s="4" t="s">
         <v>352</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>353</v>
       </c>
       <c r="H134" s="4" t="s">
         <v>79</v>
@@ -9884,13 +9888,13 @@
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
       <c r="O134" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P134" s="4"/>
     </row>
-    <row r="135" spans="1:17">
+    <row r="135" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="B135" s="4">
         <v>11</v>
@@ -9902,13 +9906,13 @@
         <v>2</v>
       </c>
       <c r="E135" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G135" s="4" t="s">
         <v>355</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="G135" s="4" t="s">
-        <v>356</v>
       </c>
       <c r="H135" s="4" t="s">
         <v>79</v>
@@ -9926,13 +9930,13 @@
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
       <c r="O135" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P135" s="4"/>
     </row>
-    <row r="136" spans="1:17">
+    <row r="136" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="B136" s="4">
         <v>11</v>
@@ -9944,16 +9948,16 @@
         <v>3</v>
       </c>
       <c r="E136" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G136" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="F136" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="G136" s="5" t="s">
-        <v>359</v>
-      </c>
       <c r="H136" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I136" s="4" t="s">
         <v>26</v>
@@ -9962,7 +9966,7 @@
       <c r="K136" s="8"/>
       <c r="L136" s="4"/>
       <c r="M136" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N136" s="4" t="s">
         <v>27</v>
@@ -9970,9 +9974,9 @@
       <c r="O136" s="5"/>
       <c r="P136" s="4"/>
     </row>
-    <row r="137" spans="1:17">
+    <row r="137" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="B137" s="4">
         <v>11</v>
@@ -9984,13 +9988,13 @@
         <v>4</v>
       </c>
       <c r="E137" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G137" s="5" t="s">
         <v>361</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="G137" s="5" t="s">
-        <v>362</v>
       </c>
       <c r="H137" s="5" t="s">
         <v>79</v>
@@ -10003,16 +10007,16 @@
         <v>20</v>
       </c>
       <c r="L137" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M137" s="4"/>
       <c r="N137" s="4"/>
       <c r="O137" s="5"/>
       <c r="P137" s="4"/>
     </row>
-    <row r="138" spans="1:17">
+    <row r="138" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="B138" s="4">
         <v>11</v>
@@ -10024,13 +10028,13 @@
         <v>5</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="H138" s="4" t="s">
         <v>34</v>
@@ -10042,21 +10046,21 @@
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
       <c r="M138" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N138" s="4" t="s">
         <v>27</v>
       </c>
       <c r="O138" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="P138" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="P138" s="5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17">
+    </row>
+    <row r="139" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="B139" s="4">
         <v>11</v>
@@ -10068,16 +10072,16 @@
         <v>6</v>
       </c>
       <c r="E139" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G139" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="F139" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="G139" s="5" t="s">
-        <v>369</v>
-      </c>
       <c r="H139" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I139" s="4" t="s">
         <v>26</v>
@@ -10086,19 +10090,19 @@
       <c r="K139" s="4"/>
       <c r="L139" s="4"/>
       <c r="M139" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N139" s="4" t="s">
         <v>27</v>
       </c>
       <c r="O139" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P139" s="4"/>
     </row>
-    <row r="140" spans="1:17">
+    <row r="140" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="B140" s="4">
         <v>11</v>
@@ -10110,13 +10114,13 @@
         <v>7</v>
       </c>
       <c r="E140" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G140" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="H140" s="5" t="s">
         <v>79</v>
@@ -10136,9 +10140,9 @@
       <c r="O140" s="5"/>
       <c r="P140" s="4"/>
     </row>
-    <row r="141" spans="1:17">
+    <row r="141" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="B141" s="4">
         <v>11</v>
@@ -10150,13 +10154,13 @@
         <v>8</v>
       </c>
       <c r="E141" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="G141" s="8" t="s">
         <v>373</v>
-      </c>
-      <c r="F141" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="G141" s="8" t="s">
-        <v>374</v>
       </c>
       <c r="H141" s="9" t="s">
         <v>34</v>
@@ -10166,23 +10170,23 @@
       </c>
       <c r="J141" s="9"/>
       <c r="K141" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L141" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M141" s="8"/>
       <c r="N141" s="8"/>
       <c r="O141" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="P141" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="P141" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17">
+    </row>
+    <row r="142" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="B142" s="4">
         <v>11</v>
@@ -10194,13 +10198,13 @@
         <v>9</v>
       </c>
       <c r="E142" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="G142" s="8" t="s">
         <v>378</v>
-      </c>
-      <c r="F142" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="G142" s="8" t="s">
-        <v>379</v>
       </c>
       <c r="H142" s="9" t="s">
         <v>34</v>
@@ -10210,23 +10214,23 @@
       </c>
       <c r="J142" s="9"/>
       <c r="K142" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L142" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M142" s="8"/>
       <c r="N142" s="8"/>
       <c r="O142" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P142" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="B143" s="4">
         <v>11</v>
@@ -10238,13 +10242,13 @@
         <v>10</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>383</v>
+        <v>1120</v>
       </c>
       <c r="H143" s="4" t="s">
         <v>79</v>
@@ -10262,14 +10266,14 @@
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
       <c r="O143" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P143" s="4"/>
       <c r="Q143" s="8"/>
     </row>
-    <row r="144" spans="1:17">
+    <row r="144" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="B144" s="4">
         <v>11</v>
@@ -10281,16 +10285,16 @@
         <v>11</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I144" s="9" t="s">
         <v>26</v>
@@ -10299,7 +10303,7 @@
       <c r="K144" s="9"/>
       <c r="L144" s="9"/>
       <c r="M144" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="N144" s="9" t="s">
         <v>27</v>
@@ -10307,9 +10311,9 @@
       <c r="O144" s="9"/>
       <c r="P144" s="9"/>
     </row>
-    <row r="145" spans="1:17">
+    <row r="145" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="B145" s="4">
         <v>11</v>
@@ -10321,13 +10325,13 @@
         <v>12</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H145" s="9" t="s">
         <v>79</v>
@@ -10337,7 +10341,7 @@
       </c>
       <c r="J145" s="9"/>
       <c r="K145" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L145" s="9" t="s">
         <v>50</v>
@@ -10345,13 +10349,13 @@
       <c r="M145" s="9"/>
       <c r="N145" s="9"/>
       <c r="O145" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="P145" s="9"/>
     </row>
-    <row r="146" spans="1:17">
+    <row r="146" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="B146" s="4">
         <v>11</v>
@@ -10363,13 +10367,13 @@
         <v>13</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H146" s="9" t="s">
         <v>34</v>
@@ -10391,9 +10395,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="147" spans="1:17">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="B147" s="4">
         <v>11</v>
@@ -10403,10 +10407,10 @@
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
@@ -10425,9 +10429,9 @@
       <c r="O147" s="4"/>
       <c r="P147" s="4"/>
     </row>
-    <row r="148" spans="1:17">
+    <row r="148" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="B148" s="4">
         <v>11</v>
@@ -10439,13 +10443,13 @@
         <v>1</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H148" s="4" t="s">
         <v>34</v>
@@ -10457,19 +10461,19 @@
       <c r="K148" s="4"/>
       <c r="L148" s="4"/>
       <c r="M148" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N148" s="4" t="s">
         <v>47</v>
       </c>
       <c r="O148" s="4"/>
       <c r="P148" s="5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="149" spans="1:17">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="B149" s="4">
         <v>11</v>
@@ -10479,7 +10483,7 @@
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>63</v>
@@ -10501,9 +10505,9 @@
       <c r="O149" s="4"/>
       <c r="P149" s="5"/>
     </row>
-    <row r="150" spans="1:17">
+    <row r="150" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="B150" s="4">
         <v>11</v>
@@ -10515,13 +10519,13 @@
         <v>1</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F150" s="4" t="s">
         <v>63</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H150" s="4" t="s">
         <v>34</v>
@@ -10533,19 +10537,19 @@
       <c r="K150" s="4"/>
       <c r="L150" s="4"/>
       <c r="M150" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N150" s="4" t="s">
         <v>47</v>
       </c>
       <c r="O150" s="4"/>
       <c r="P150" s="5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="B151" s="4">
         <v>11</v>
@@ -10555,7 +10559,7 @@
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F151" s="4" t="s">
         <v>49</v>
@@ -10577,9 +10581,9 @@
       <c r="O151" s="4"/>
       <c r="P151" s="4"/>
     </row>
-    <row r="152" spans="1:17">
+    <row r="152" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="B152" s="4">
         <v>12</v>
@@ -10589,10 +10593,10 @@
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="F152" s="4" t="s">
         <v>404</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>406</v>
       </c>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
@@ -10609,13 +10613,13 @@
       <c r="M152" s="4"/>
       <c r="N152" s="4"/>
       <c r="O152" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="P152" s="4"/>
     </row>
-    <row r="153" spans="1:17">
+    <row r="153" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="B153" s="4">
         <v>12</v>
@@ -10627,13 +10631,13 @@
         <v>1</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H153" s="5" t="s">
         <v>79</v>
@@ -10651,13 +10655,13 @@
       <c r="M153" s="5"/>
       <c r="N153" s="5"/>
       <c r="O153" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="P153" s="4"/>
     </row>
-    <row r="154" spans="1:17">
+    <row r="154" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="B154" s="4">
         <v>12</v>
@@ -10669,13 +10673,13 @@
         <v>2</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H154" s="5" t="s">
         <v>34</v>
@@ -10694,12 +10698,12 @@
       <c r="N154" s="5"/>
       <c r="O154" s="5"/>
       <c r="P154" s="9" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="B155" s="4">
         <v>12</v>
@@ -10711,13 +10715,13 @@
         <v>3</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H155" s="9" t="s">
         <v>34</v>
@@ -10727,23 +10731,23 @@
       </c>
       <c r="J155" s="5"/>
       <c r="K155" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L155" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M155" s="9"/>
       <c r="N155" s="9"/>
       <c r="O155" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="P155" s="5" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="B156" s="4">
         <v>12</v>
@@ -10755,13 +10759,13 @@
         <v>4</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H156" s="9" t="s">
         <v>34</v>
@@ -10771,23 +10775,23 @@
       </c>
       <c r="J156" s="9"/>
       <c r="K156" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L156" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M156" s="8"/>
       <c r="N156" s="8"/>
       <c r="O156" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="P156" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="157" spans="1:17">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="B157" s="4">
         <v>12</v>
@@ -10799,13 +10803,13 @@
         <v>5</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H157" s="4" t="s">
         <v>34</v>
@@ -10827,9 +10831,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="158" spans="1:17">
+    <row r="158" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="B158" s="4">
         <v>12</v>
@@ -10841,13 +10845,13 @@
         <v>6</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G158" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H158" s="8" t="s">
         <v>34</v>
@@ -10865,16 +10869,16 @@
       <c r="M158" s="8"/>
       <c r="N158" s="8"/>
       <c r="O158" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="P158" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q158" s="8"/>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="B159" s="4">
         <v>12</v>
@@ -10886,13 +10890,13 @@
         <v>7</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H159" s="8" t="s">
         <v>79</v>
@@ -10913,9 +10917,9 @@
       <c r="P159" s="8"/>
       <c r="Q159" s="8"/>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="B160" s="4">
         <v>12</v>
@@ -10925,10 +10929,10 @@
       </c>
       <c r="D160" s="4"/>
       <c r="E160" s="8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
@@ -10945,13 +10949,13 @@
       <c r="M160" s="4"/>
       <c r="N160" s="4"/>
       <c r="O160" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="P160" s="4"/>
     </row>
-    <row r="161" spans="1:17">
+    <row r="161" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="B161" s="4">
         <v>12</v>
@@ -10963,13 +10967,13 @@
         <v>1</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H161" s="8" t="s">
         <v>79</v>
@@ -10987,14 +10991,14 @@
       <c r="M161" s="8"/>
       <c r="N161" s="8"/>
       <c r="O161" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="P161" s="8"/>
       <c r="Q161" s="8"/>
     </row>
-    <row r="162" spans="1:17">
+    <row r="162" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="B162" s="4">
         <v>12</v>
@@ -11006,16 +11010,16 @@
         <v>2</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G162" s="8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H162" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I162" s="8" t="s">
         <v>26</v>
@@ -11024,7 +11028,7 @@
       <c r="K162" s="8"/>
       <c r="L162" s="8"/>
       <c r="M162" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="N162" s="8" t="s">
         <v>27</v>
@@ -11033,9 +11037,9 @@
       <c r="P162" s="8"/>
       <c r="Q162" s="8"/>
     </row>
-    <row r="163" spans="1:17">
+    <row r="163" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="B163" s="4">
         <v>12</v>
@@ -11047,13 +11051,13 @@
         <v>3</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H163" s="8" t="s">
         <v>34</v>
@@ -11062,7 +11066,7 @@
         <v>19</v>
       </c>
       <c r="J163" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K163" s="8" t="s">
         <v>20</v>
@@ -11074,13 +11078,13 @@
       <c r="N163" s="8"/>
       <c r="O163" s="8"/>
       <c r="P163" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="Q163" s="8"/>
     </row>
-    <row r="164" spans="1:17">
+    <row r="164" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="B164" s="4">
         <v>12</v>
@@ -11092,13 +11096,13 @@
         <v>4</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H164" s="8" t="s">
         <v>34</v>
@@ -11117,13 +11121,13 @@
       <c r="N164" s="8"/>
       <c r="O164" s="8"/>
       <c r="P164" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q164" s="8"/>
     </row>
-    <row r="165" spans="1:17">
+    <row r="165" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
       <c r="B165" s="4">
         <v>12</v>
@@ -11135,13 +11139,13 @@
         <v>5</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H165" s="8" t="s">
         <v>34</v>
@@ -11160,13 +11164,13 @@
       <c r="N165" s="8"/>
       <c r="O165" s="8"/>
       <c r="P165" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Q165" s="8"/>
     </row>
-    <row r="166" spans="1:17">
+    <row r="166" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="B166" s="4">
         <v>12</v>
@@ -11178,13 +11182,13 @@
         <v>6</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H166" s="8" t="s">
         <v>34</v>
@@ -11207,9 +11211,9 @@
       </c>
       <c r="Q166" s="8"/>
     </row>
-    <row r="167" spans="1:17">
+    <row r="167" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="B167" s="4">
         <v>12</v>
@@ -11221,13 +11225,13 @@
         <v>7</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G167" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H167" s="8" t="s">
         <v>79</v>
@@ -11245,14 +11249,14 @@
       <c r="M167" s="8"/>
       <c r="N167" s="8"/>
       <c r="O167" s="8" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="P167" s="9"/>
       <c r="Q167" s="8"/>
     </row>
-    <row r="168" spans="1:17">
+    <row r="168" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="B168" s="4">
         <v>12</v>
@@ -11264,13 +11268,13 @@
         <v>8</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G168" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H168" s="8" t="s">
         <v>34</v>
@@ -11289,13 +11293,13 @@
       <c r="N168" s="8"/>
       <c r="O168" s="8"/>
       <c r="P168" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="Q168" s="8"/>
     </row>
-    <row r="169" spans="1:17">
+    <row r="169" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
       <c r="B169" s="4">
         <v>12</v>
@@ -11307,13 +11311,13 @@
         <v>9</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H169" s="8" t="s">
         <v>79</v>
@@ -11334,9 +11338,9 @@
       <c r="P169" s="9"/>
       <c r="Q169" s="8"/>
     </row>
-    <row r="170" spans="1:17">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="B170" s="4">
         <v>12</v>
@@ -11346,7 +11350,7 @@
       </c>
       <c r="D170" s="4"/>
       <c r="E170" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F170" s="4" t="s">
         <v>49</v>
@@ -11368,9 +11372,9 @@
       <c r="O170" s="4"/>
       <c r="P170" s="4"/>
     </row>
-    <row r="171" spans="1:17">
+    <row r="171" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="B171" s="4">
         <v>13</v>
@@ -11380,10 +11384,10 @@
       </c>
       <c r="D171" s="4"/>
       <c r="E171" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="F171" s="4" t="s">
         <v>458</v>
-      </c>
-      <c r="F171" s="4" t="s">
-        <v>460</v>
       </c>
       <c r="G171" s="4"/>
       <c r="H171" s="12"/>
@@ -11400,13 +11404,13 @@
       <c r="M171" s="12"/>
       <c r="N171" s="4"/>
       <c r="O171" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="P171" s="4"/>
     </row>
-    <row r="172" spans="1:17">
+    <row r="172" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="B172" s="4">
         <v>13</v>
@@ -11418,13 +11422,13 @@
         <v>1</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H172" s="12" t="s">
         <v>34</v>
@@ -11442,15 +11446,15 @@
       <c r="M172" s="12"/>
       <c r="N172" s="4"/>
       <c r="O172" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="P172" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="173" spans="1:17">
+    <row r="173" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="B173" s="4">
         <v>13</v>
@@ -11462,13 +11466,13 @@
         <v>2</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H173" s="4" t="s">
         <v>79</v>
@@ -11488,9 +11492,9 @@
       <c r="O173" s="4"/>
       <c r="P173" s="4"/>
     </row>
-    <row r="174" spans="1:17">
+    <row r="174" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="B174" s="4">
         <v>13</v>
@@ -11502,13 +11506,13 @@
         <v>3</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H174" s="4" t="s">
         <v>24</v>
@@ -11520,19 +11524,19 @@
       <c r="K174" s="4"/>
       <c r="L174" s="4"/>
       <c r="M174" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N174" s="4" t="s">
         <v>47</v>
       </c>
       <c r="O174" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="P174" s="4"/>
     </row>
-    <row r="175" spans="1:17">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="B175" s="4">
         <v>13</v>
@@ -11542,7 +11546,7 @@
       </c>
       <c r="D175" s="4"/>
       <c r="E175" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F175" s="4" t="s">
         <v>49</v>
@@ -11564,9 +11568,9 @@
       <c r="O175" s="4"/>
       <c r="P175" s="4"/>
     </row>
-    <row r="176" spans="1:17">
+    <row r="176" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="B176" s="4">
         <v>14</v>
@@ -11596,14 +11600,14 @@
       <c r="M176" s="6"/>
       <c r="N176" s="8"/>
       <c r="O176" s="8" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="P176" s="8"/>
       <c r="Q176" s="8"/>
     </row>
-    <row r="177" spans="1:17">
+    <row r="177" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="B177" s="4">
         <v>14</v>
@@ -11615,16 +11619,16 @@
         <v>1</v>
       </c>
       <c r="E177" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F177" s="8" t="s">
         <v>109</v>
       </c>
       <c r="G177" s="8" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H177" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I177" s="8" t="s">
         <v>26</v>
@@ -11633,7 +11637,7 @@
       <c r="K177" s="8"/>
       <c r="L177" s="8"/>
       <c r="M177" s="8" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="N177" s="8" t="s">
         <v>21</v>
@@ -11642,9 +11646,9 @@
       <c r="P177" s="8"/>
       <c r="Q177" s="8"/>
     </row>
-    <row r="178" spans="1:17">
+    <row r="178" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="B178" s="4">
         <v>14</v>
@@ -11656,16 +11660,16 @@
         <v>2</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F178" s="8" t="s">
         <v>109</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H178" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I178" s="8" t="s">
         <v>26</v>
@@ -11674,7 +11678,7 @@
       <c r="K178" s="8"/>
       <c r="L178" s="8"/>
       <c r="M178" s="8" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="N178" s="8" t="s">
         <v>21</v>
@@ -11683,9 +11687,9 @@
       <c r="P178" s="8"/>
       <c r="Q178" s="8"/>
     </row>
-    <row r="179" spans="1:17">
+    <row r="179" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="B179" s="4">
         <v>14</v>
@@ -11697,16 +11701,16 @@
         <v>3</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F179" s="8" t="s">
         <v>109</v>
       </c>
       <c r="G179" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H179" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I179" s="8" t="s">
         <v>26</v>
@@ -11715,7 +11719,7 @@
       <c r="K179" s="8"/>
       <c r="L179" s="8"/>
       <c r="M179" s="8" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="N179" s="8" t="s">
         <v>21</v>
@@ -11724,9 +11728,9 @@
       <c r="P179" s="8"/>
       <c r="Q179" s="8"/>
     </row>
-    <row r="180" spans="1:17">
+    <row r="180" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="B180" s="4">
         <v>14</v>
@@ -11738,16 +11742,16 @@
         <v>4</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F180" s="8" t="s">
         <v>109</v>
       </c>
       <c r="G180" s="9" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H180" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I180" s="8" t="s">
         <v>26</v>
@@ -11756,7 +11760,7 @@
       <c r="K180" s="8"/>
       <c r="L180" s="8"/>
       <c r="M180" s="8" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="N180" s="8" t="s">
         <v>21</v>
@@ -11765,9 +11769,9 @@
       <c r="P180" s="8"/>
       <c r="Q180" s="8"/>
     </row>
-    <row r="181" spans="1:17">
+    <row r="181" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="B181" s="4">
         <v>14</v>
@@ -11779,16 +11783,16 @@
         <v>5</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F181" s="8" t="s">
         <v>109</v>
       </c>
       <c r="G181" s="9" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H181" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I181" s="8" t="s">
         <v>26</v>
@@ -11797,7 +11801,7 @@
       <c r="K181" s="8"/>
       <c r="L181" s="8"/>
       <c r="M181" s="8" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="N181" s="8" t="s">
         <v>21</v>
@@ -11806,9 +11810,9 @@
       <c r="P181" s="8"/>
       <c r="Q181" s="8"/>
     </row>
-    <row r="182" spans="1:17">
+    <row r="182" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="B182" s="4">
         <v>14</v>
@@ -11820,16 +11824,16 @@
         <v>6</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F182" s="4" t="s">
         <v>109</v>
       </c>
       <c r="G182" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I182" s="4" t="s">
         <v>26</v>
@@ -11838,7 +11842,7 @@
       <c r="K182" s="4"/>
       <c r="L182" s="4"/>
       <c r="M182" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="N182" s="4" t="s">
         <v>21</v>
@@ -11846,9 +11850,9 @@
       <c r="O182" s="4"/>
       <c r="P182" s="4"/>
     </row>
-    <row r="183" spans="1:17">
+    <row r="183" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="B183" s="4">
         <v>14</v>
@@ -11860,13 +11864,13 @@
         <v>7</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F183" s="4" t="s">
         <v>109</v>
       </c>
       <c r="G183" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H183" s="8" t="s">
         <v>79</v>
@@ -11886,9 +11890,9 @@
       <c r="O183" s="4"/>
       <c r="P183" s="4"/>
     </row>
-    <row r="184" spans="1:17">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="B184" s="4">
         <v>14</v>
@@ -11898,10 +11902,10 @@
       </c>
       <c r="D184" s="4"/>
       <c r="E184" s="8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G184" s="8"/>
       <c r="H184" s="8"/>
@@ -11921,9 +11925,9 @@
       <c r="P184" s="8"/>
       <c r="Q184" s="8"/>
     </row>
-    <row r="185" spans="1:17">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="B185" s="4">
         <v>14</v>
@@ -11933,13 +11937,13 @@
       </c>
       <c r="D185" s="4"/>
       <c r="E185" s="8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F185" s="8" t="s">
         <v>49</v>
       </c>
       <c r="G185" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H185" s="8"/>
       <c r="I185" s="8" t="s">
@@ -11958,9 +11962,9 @@
       <c r="P185" s="8"/>
       <c r="Q185" s="8"/>
     </row>
-    <row r="186" spans="1:17">
+    <row r="186" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="B186" s="4">
         <v>15</v>
@@ -11970,7 +11974,7 @@
       </c>
       <c r="D186" s="4"/>
       <c r="E186" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F186" s="4" t="s">
         <v>109</v>
@@ -11990,13 +11994,13 @@
       <c r="M186" s="12"/>
       <c r="N186" s="4"/>
       <c r="O186" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="P186" s="4"/>
     </row>
-    <row r="187" spans="1:17">
+    <row r="187" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="B187" s="4">
         <v>15</v>
@@ -12008,13 +12012,13 @@
         <v>1</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F187" s="4" t="s">
         <v>109</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H187" s="4" t="s">
         <v>79</v>
@@ -12024,7 +12028,7 @@
       </c>
       <c r="J187" s="4"/>
       <c r="K187" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="L187" s="4" t="s">
         <v>47</v>
@@ -12032,13 +12036,13 @@
       <c r="M187" s="12"/>
       <c r="N187" s="4"/>
       <c r="O187" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="P187" s="4"/>
     </row>
-    <row r="188" spans="1:17">
+    <row r="188" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="B188" s="4">
         <v>15</v>
@@ -12050,16 +12054,16 @@
         <v>2</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F188" s="4" t="s">
         <v>109</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I188" s="4" t="s">
         <v>26</v>
@@ -12068,7 +12072,7 @@
       <c r="K188" s="4"/>
       <c r="L188" s="4"/>
       <c r="M188" s="12" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="N188" s="4" t="s">
         <v>21</v>
@@ -12076,9 +12080,9 @@
       <c r="O188" s="4"/>
       <c r="P188" s="4"/>
     </row>
-    <row r="189" spans="1:17">
+    <row r="189" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="B189" s="4">
         <v>15</v>
@@ -12090,16 +12094,16 @@
         <v>3</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F189" s="4" t="s">
         <v>109</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I189" s="4" t="s">
         <v>26</v>
@@ -12108,7 +12112,7 @@
       <c r="K189" s="4"/>
       <c r="L189" s="4"/>
       <c r="M189" s="12" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="N189" s="4" t="s">
         <v>47</v>
@@ -12116,9 +12120,9 @@
       <c r="O189" s="4"/>
       <c r="P189" s="4"/>
     </row>
-    <row r="190" spans="1:17">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="B190" s="4">
         <v>15</v>
@@ -12130,13 +12134,13 @@
         <v>4</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F190" s="4" t="s">
         <v>109</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H190" s="4" t="s">
         <v>34</v>
@@ -12154,15 +12158,15 @@
       <c r="M190" s="12"/>
       <c r="N190" s="4"/>
       <c r="O190" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="P190" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="191" spans="1:17">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="B191" s="4">
         <v>15</v>
@@ -12172,10 +12176,10 @@
       </c>
       <c r="D191" s="4"/>
       <c r="E191" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
@@ -12194,9 +12198,9 @@
       <c r="O191" s="4"/>
       <c r="P191" s="4"/>
     </row>
-    <row r="192" spans="1:17">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="B192" s="4">
         <v>15</v>
@@ -12206,7 +12210,7 @@
       </c>
       <c r="D192" s="4"/>
       <c r="E192" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F192" s="4" t="s">
         <v>49</v>
@@ -12228,9 +12232,9 @@
       <c r="O192" s="4"/>
       <c r="P192" s="4"/>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="B193" s="4">
         <v>16</v>
@@ -12240,10 +12244,10 @@
       </c>
       <c r="D193" s="4"/>
       <c r="E193" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G193" s="4"/>
       <c r="H193" s="4"/>
@@ -12260,13 +12264,13 @@
       <c r="M193" s="4"/>
       <c r="N193" s="4"/>
       <c r="O193" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P193" s="4"/>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="B194" s="4">
         <v>16</v>
@@ -12278,13 +12282,13 @@
         <v>1</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H194" s="4" t="s">
         <v>34</v>
@@ -12297,20 +12301,20 @@
         <v>20</v>
       </c>
       <c r="L194" s="4" t="s">
-        <v>518</v>
+        <v>94</v>
       </c>
       <c r="M194" s="4"/>
       <c r="N194" s="4"/>
       <c r="O194" s="4" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="P194" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="195" spans="1:16">
+    <row r="195" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="B195" s="4">
         <v>16</v>
@@ -12322,13 +12326,13 @@
         <v>2</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H195" s="8" t="s">
         <v>24</v>
@@ -12340,7 +12344,7 @@
       <c r="K195" s="4"/>
       <c r="L195" s="4"/>
       <c r="M195" s="4" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="N195" s="4" t="s">
         <v>21</v>
@@ -12348,9 +12352,9 @@
       <c r="O195" s="5"/>
       <c r="P195" s="4"/>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="B196" s="4">
         <v>16</v>
@@ -12362,13 +12366,13 @@
         <v>3</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H196" s="8" t="s">
         <v>24</v>
@@ -12380,7 +12384,7 @@
       <c r="K196" s="4"/>
       <c r="L196" s="4"/>
       <c r="M196" s="4" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="N196" s="4" t="s">
         <v>21</v>
@@ -12388,9 +12392,9 @@
       <c r="O196" s="4"/>
       <c r="P196" s="4"/>
     </row>
-    <row r="197" spans="1:16">
+    <row r="197" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="B197" s="4">
         <v>16</v>
@@ -12402,13 +12406,13 @@
         <v>4</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H197" s="8" t="s">
         <v>24</v>
@@ -12420,19 +12424,19 @@
       <c r="K197" s="4"/>
       <c r="L197" s="4"/>
       <c r="M197" s="4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="N197" s="4" t="s">
         <v>21</v>
       </c>
       <c r="O197" s="4" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="P197" s="4"/>
     </row>
-    <row r="198" spans="1:16">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="B198" s="4">
         <v>16</v>
@@ -12444,13 +12448,13 @@
         <v>5</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="H198" s="8" t="s">
         <v>79</v>
@@ -12470,9 +12474,9 @@
       <c r="O198" s="4"/>
       <c r="P198" s="4"/>
     </row>
-    <row r="199" spans="1:16">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="B199" s="4">
         <v>16</v>
@@ -12482,7 +12486,7 @@
       </c>
       <c r="D199" s="4"/>
       <c r="E199" s="4" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F199" s="4" t="s">
         <v>46</v>
@@ -12504,9 +12508,9 @@
       <c r="O199" s="4"/>
       <c r="P199" s="4"/>
     </row>
-    <row r="200" spans="1:16">
+    <row r="200" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="B200" s="4">
         <v>16</v>
@@ -12518,13 +12522,13 @@
         <v>1</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F200" s="4" t="s">
         <v>46</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H200" s="8" t="s">
         <v>79</v>
@@ -12544,9 +12548,9 @@
       <c r="O200" s="4"/>
       <c r="P200" s="4"/>
     </row>
-    <row r="201" spans="1:16">
+    <row r="201" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="B201" s="4">
         <v>16</v>
@@ -12558,13 +12562,13 @@
         <v>2</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F201" s="4" t="s">
         <v>46</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H201" s="8" t="s">
         <v>34</v>
@@ -12577,18 +12581,18 @@
         <v>20</v>
       </c>
       <c r="L201" s="4" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M201" s="4"/>
       <c r="N201" s="4"/>
       <c r="O201" s="4"/>
       <c r="P201" s="5" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="202" spans="1:16">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="B202" s="4">
         <v>16</v>
@@ -12598,10 +12602,10 @@
       </c>
       <c r="D202" s="4"/>
       <c r="E202" s="4" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G202" s="4"/>
       <c r="H202" s="4"/>
@@ -12620,9 +12624,9 @@
       <c r="O202" s="4"/>
       <c r="P202" s="4"/>
     </row>
-    <row r="203" spans="1:16">
+    <row r="203" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="B203" s="4">
         <v>16</v>
@@ -12634,13 +12638,13 @@
         <v>1</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H203" s="8" t="s">
         <v>24</v>
@@ -12660,9 +12664,9 @@
       <c r="O203" s="4"/>
       <c r="P203" s="4"/>
     </row>
-    <row r="204" spans="1:16">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="B204" s="4">
         <v>16</v>
@@ -12674,13 +12678,13 @@
         <v>2</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H204" s="8" t="s">
         <v>24</v>
@@ -12700,9 +12704,9 @@
       <c r="O204" s="4"/>
       <c r="P204" s="4"/>
     </row>
-    <row r="205" spans="1:16">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="B205" s="4">
         <v>16</v>
@@ -12712,7 +12716,7 @@
       </c>
       <c r="D205" s="4"/>
       <c r="E205" s="4" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F205" s="4" t="s">
         <v>49</v>
@@ -12734,9 +12738,9 @@
       <c r="O205" s="4"/>
       <c r="P205" s="4"/>
     </row>
-    <row r="206" spans="1:16">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="B206" s="4">
         <v>17</v>
@@ -12746,10 +12750,10 @@
       </c>
       <c r="D206" s="4"/>
       <c r="E206" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="G206" s="4"/>
       <c r="H206" s="8"/>
@@ -12766,13 +12770,13 @@
       <c r="M206" s="4"/>
       <c r="N206" s="4"/>
       <c r="O206" s="4" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="P206" s="4"/>
     </row>
-    <row r="207" spans="1:16">
+    <row r="207" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="B207" s="4">
         <v>17</v>
@@ -12784,13 +12788,13 @@
         <v>1</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F207" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="G207" s="5" t="s">
         <v>543</v>
-      </c>
-      <c r="G207" s="5" t="s">
-        <v>546</v>
       </c>
       <c r="H207" s="8" t="s">
         <v>24</v>
@@ -12802,7 +12806,7 @@
       <c r="K207" s="4"/>
       <c r="L207" s="4"/>
       <c r="M207" s="4" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="N207" s="8" t="s">
         <v>27</v>
@@ -12810,9 +12814,9 @@
       <c r="O207" s="4"/>
       <c r="P207" s="4"/>
     </row>
-    <row r="208" spans="1:16">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="B208" s="4">
         <v>17</v>
@@ -12824,13 +12828,13 @@
         <v>2</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="G208" s="9" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="H208" s="4" t="s">
         <v>24</v>
@@ -12850,9 +12854,9 @@
       <c r="O208" s="4"/>
       <c r="P208" s="4"/>
     </row>
-    <row r="209" spans="1:16">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="B209" s="4">
         <v>17</v>
@@ -12862,10 +12866,10 @@
       </c>
       <c r="D209" s="4"/>
       <c r="E209" s="4" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G209" s="5"/>
       <c r="H209" s="8"/>
@@ -12884,9 +12888,9 @@
       <c r="O209" s="4"/>
       <c r="P209" s="4"/>
     </row>
-    <row r="210" spans="1:16">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="B210" s="4">
         <v>17</v>
@@ -12898,13 +12902,13 @@
         <v>1</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H210" s="8" t="s">
         <v>34</v>
@@ -12917,18 +12921,18 @@
         <v>20</v>
       </c>
       <c r="L210" s="4" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="M210" s="4"/>
       <c r="N210" s="4"/>
       <c r="O210" s="4"/>
       <c r="P210" s="5" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="211" spans="1:16">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="B211" s="4">
         <v>17</v>
@@ -12938,10 +12942,10 @@
       </c>
       <c r="D211" s="4"/>
       <c r="E211" s="4" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G211" s="5"/>
       <c r="H211" s="8"/>
@@ -12958,13 +12962,13 @@
       <c r="M211" s="4"/>
       <c r="N211" s="4"/>
       <c r="O211" s="4" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="P211" s="4"/>
     </row>
-    <row r="212" spans="1:16">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="B212" s="4">
         <v>17</v>
@@ -12976,13 +12980,13 @@
         <v>1</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="H212" s="8" t="s">
         <v>24</v>
@@ -13002,9 +13006,9 @@
       <c r="O212" s="4"/>
       <c r="P212" s="4"/>
     </row>
-    <row r="213" spans="1:16">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="B213" s="4">
         <v>17</v>
@@ -13014,10 +13018,10 @@
       </c>
       <c r="D213" s="4"/>
       <c r="E213" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G213" s="5"/>
       <c r="H213" s="8"/>
@@ -13036,9 +13040,9 @@
       <c r="O213" s="4"/>
       <c r="P213" s="4"/>
     </row>
-    <row r="214" spans="1:16">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="B214" s="4">
         <v>17</v>
@@ -13048,10 +13052,10 @@
       </c>
       <c r="D214" s="4"/>
       <c r="E214" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F214" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G214" s="9"/>
       <c r="H214" s="8"/>
@@ -13068,13 +13072,13 @@
       <c r="M214" s="8"/>
       <c r="N214" s="8"/>
       <c r="O214" s="8" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="P214" s="4"/>
     </row>
-    <row r="215" spans="1:16">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="B215" s="4">
         <v>17</v>
@@ -13086,13 +13090,13 @@
         <v>1</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G215" s="5" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="H215" s="8" t="s">
         <v>24</v>
@@ -13104,7 +13108,7 @@
       <c r="K215" s="8"/>
       <c r="L215" s="8"/>
       <c r="M215" s="8" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="N215" s="8" t="s">
         <v>27</v>
@@ -13112,9 +13116,9 @@
       <c r="O215" s="8"/>
       <c r="P215" s="4"/>
     </row>
-    <row r="216" spans="1:16">
+    <row r="216" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="B216" s="4">
         <v>17</v>
@@ -13126,13 +13130,13 @@
         <v>2</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G216" s="8" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
       <c r="H216" s="4" t="s">
         <v>24</v>
@@ -13144,7 +13148,7 @@
       <c r="K216" s="4"/>
       <c r="L216" s="4"/>
       <c r="M216" s="8" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="N216" s="4" t="s">
         <v>21</v>
@@ -13152,9 +13156,9 @@
       <c r="O216" s="4"/>
       <c r="P216" s="4"/>
     </row>
-    <row r="217" spans="1:16">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="B217" s="4">
         <v>17</v>
@@ -13164,7 +13168,7 @@
       </c>
       <c r="D217" s="4"/>
       <c r="E217" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F217" s="4" t="s">
         <v>49</v>
@@ -13186,9 +13190,9 @@
       <c r="O217" s="4"/>
       <c r="P217" s="4"/>
     </row>
-    <row r="218" spans="1:16">
+    <row r="218" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="B218" s="4">
         <v>18</v>
@@ -13198,10 +13202,10 @@
       </c>
       <c r="D218" s="8"/>
       <c r="E218" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G218" s="4"/>
       <c r="H218" s="4" t="s">
@@ -13220,15 +13224,15 @@
       <c r="M218" s="4"/>
       <c r="N218" s="4"/>
       <c r="O218" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="P218" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="219" spans="1:16">
+    <row r="219" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="B219" s="4">
         <v>18</v>
@@ -13240,13 +13244,13 @@
         <v>1</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F219" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="G219" s="4" t="s">
         <v>566</v>
-      </c>
-      <c r="G219" s="4" t="s">
-        <v>569</v>
       </c>
       <c r="H219" s="4" t="s">
         <v>34</v>
@@ -13265,12 +13269,12 @@
       <c r="N219" s="4"/>
       <c r="O219" s="4"/>
       <c r="P219" s="5" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="220" spans="1:16">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="B220" s="4">
         <v>18</v>
@@ -13280,10 +13284,10 @@
       </c>
       <c r="D220" s="4"/>
       <c r="E220" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G220" s="4"/>
       <c r="H220" s="4" t="s">
@@ -13306,9 +13310,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="221" spans="1:16">
+    <row r="221" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="B221" s="4">
         <v>18</v>
@@ -13318,10 +13322,10 @@
       </c>
       <c r="D221" s="4"/>
       <c r="E221" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G221" s="4"/>
       <c r="H221" s="4" t="s">
@@ -13340,15 +13344,15 @@
       <c r="M221" s="4"/>
       <c r="N221" s="4"/>
       <c r="O221" s="4" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="P221" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="222" spans="1:16">
+    <row r="222" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="B222" s="4">
         <v>18</v>
@@ -13360,13 +13364,13 @@
         <v>1</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H222" s="4" t="s">
         <v>34</v>
@@ -13385,12 +13389,12 @@
       <c r="N222" s="4"/>
       <c r="O222" s="4"/>
       <c r="P222" s="5" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="223" spans="1:16">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="B223" s="4">
         <v>18</v>
@@ -13400,10 +13404,10 @@
       </c>
       <c r="D223" s="4"/>
       <c r="E223" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G223" s="4"/>
       <c r="H223" s="4" t="s">
@@ -13426,9 +13430,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="224" spans="1:16">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="B224" s="4">
         <v>18</v>
@@ -13438,7 +13442,7 @@
       </c>
       <c r="D224" s="4"/>
       <c r="E224" s="4" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F224" s="4" t="s">
         <v>49</v>
@@ -13460,9 +13464,9 @@
       <c r="O224" s="4"/>
       <c r="P224" s="4"/>
     </row>
-    <row r="225" spans="1:17">
+    <row r="225" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
       <c r="B225" s="4">
         <v>19</v>
@@ -13472,10 +13476,10 @@
       </c>
       <c r="D225" s="8"/>
       <c r="E225" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G225" s="4"/>
       <c r="H225" s="12"/>
@@ -13492,13 +13496,13 @@
       <c r="M225" s="12"/>
       <c r="N225" s="4"/>
       <c r="O225" s="4" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="P225" s="4"/>
     </row>
-    <row r="226" spans="1:17">
+    <row r="226" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="B226" s="4">
         <v>19</v>
@@ -13510,13 +13514,13 @@
         <v>1</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="H226" s="4" t="s">
         <v>34</v>
@@ -13534,15 +13538,15 @@
       <c r="M226" s="4"/>
       <c r="N226" s="4"/>
       <c r="O226" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="P226" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="227" spans="1:17">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="B227" s="4">
         <v>19</v>
@@ -13554,13 +13558,13 @@
         <v>2</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="H227" s="4" t="s">
         <v>24</v>
@@ -13572,15 +13576,15 @@
       <c r="K227" s="4"/>
       <c r="L227" s="5"/>
       <c r="M227" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="N227" s="4"/>
       <c r="O227" s="4"/>
       <c r="P227" s="4"/>
     </row>
-    <row r="228" spans="1:17">
+    <row r="228" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="B228" s="4">
         <v>19</v>
@@ -13592,13 +13596,13 @@
         <v>3</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="H228" s="4" t="s">
         <v>79</v>
@@ -13616,13 +13620,13 @@
       <c r="M228" s="4"/>
       <c r="N228" s="4"/>
       <c r="O228" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="P228" s="4"/>
     </row>
-    <row r="229" spans="1:17">
+    <row r="229" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="B229" s="4">
         <v>19</v>
@@ -13634,13 +13638,13 @@
         <v>4</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G229" s="9" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="H229" s="4" t="s">
         <v>34</v>
@@ -13652,17 +13656,17 @@
       <c r="K229" s="4"/>
       <c r="L229" s="4"/>
       <c r="M229" s="4" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="N229" s="4"/>
       <c r="O229" s="4"/>
       <c r="P229" s="5" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="230" spans="1:17">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
       <c r="B230" s="4">
         <v>19</v>
@@ -13674,13 +13678,13 @@
         <v>5</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H230" s="4" t="s">
         <v>24</v>
@@ -13692,7 +13696,7 @@
       <c r="K230" s="4"/>
       <c r="L230" s="4"/>
       <c r="M230" s="4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="N230" s="4" t="s">
         <v>21</v>
@@ -13700,9 +13704,9 @@
       <c r="O230" s="4"/>
       <c r="P230" s="4"/>
     </row>
-    <row r="231" spans="1:17">
+    <row r="231" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="B231" s="4">
         <v>19</v>
@@ -13714,13 +13718,13 @@
         <v>6</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F231" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G231" s="8" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H231" s="8" t="s">
         <v>24</v>
@@ -13732,7 +13736,7 @@
       <c r="K231" s="8"/>
       <c r="L231" s="8"/>
       <c r="M231" s="8" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="N231" s="8" t="s">
         <v>21</v>
@@ -13741,9 +13745,9 @@
       <c r="P231" s="8"/>
       <c r="Q231" s="8"/>
     </row>
-    <row r="232" spans="1:17">
+    <row r="232" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="B232" s="4">
         <v>19</v>
@@ -13755,13 +13759,13 @@
         <v>7</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F232" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G232" s="8" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H232" s="8" t="s">
         <v>24</v>
@@ -13773,7 +13777,7 @@
       <c r="K232" s="8"/>
       <c r="L232" s="8"/>
       <c r="M232" s="8" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="N232" s="8" t="s">
         <v>21</v>
@@ -13782,9 +13786,9 @@
       <c r="P232" s="8"/>
       <c r="Q232" s="8"/>
     </row>
-    <row r="233" spans="1:17">
+    <row r="233" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="B233" s="4">
         <v>19</v>
@@ -13796,13 +13800,13 @@
         <v>8</v>
       </c>
       <c r="E233" s="8" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F233" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G233" s="8" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="H233" s="8" t="s">
         <v>79</v>
@@ -13823,9 +13827,9 @@
       <c r="P233" s="8"/>
       <c r="Q233" s="8"/>
     </row>
-    <row r="234" spans="1:17">
+    <row r="234" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="B234" s="4">
         <v>19</v>
@@ -13837,13 +13841,13 @@
         <v>9</v>
       </c>
       <c r="E234" s="8" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F234" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G234" s="8" t="s">
-        <v>606</v>
+        <v>1121</v>
       </c>
       <c r="H234" s="8" t="s">
         <v>79</v>
@@ -13864,9 +13868,9 @@
       <c r="P234" s="8"/>
       <c r="Q234" s="8"/>
     </row>
-    <row r="235" spans="1:17">
+    <row r="235" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="B235" s="4">
         <v>19</v>
@@ -13878,13 +13882,13 @@
         <v>10</v>
       </c>
       <c r="E235" s="8" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F235" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G235" s="8" t="s">
-        <v>608</v>
+        <v>1122</v>
       </c>
       <c r="H235" s="8" t="s">
         <v>79</v>
@@ -13897,19 +13901,19 @@
         <v>20</v>
       </c>
       <c r="L235" s="8" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="M235" s="8"/>
       <c r="N235" s="8"/>
       <c r="O235" s="8" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="P235" s="8"/>
       <c r="Q235" s="8"/>
     </row>
-    <row r="236" spans="1:17">
+    <row r="236" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="B236" s="4">
         <v>19</v>
@@ -13921,13 +13925,13 @@
         <v>11</v>
       </c>
       <c r="E236" s="8" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F236" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G236" s="8" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="H236" s="8" t="s">
         <v>79</v>
@@ -13940,19 +13944,19 @@
         <v>20</v>
       </c>
       <c r="L236" s="8" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="M236" s="8"/>
       <c r="N236" s="8"/>
       <c r="O236" s="8" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="P236" s="8"/>
       <c r="Q236" s="8"/>
     </row>
-    <row r="237" spans="1:17">
+    <row r="237" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="B237" s="4">
         <v>19</v>
@@ -13964,13 +13968,13 @@
         <v>12</v>
       </c>
       <c r="E237" s="8" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="F237" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G237" s="8" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="H237" s="8" t="s">
         <v>34</v>
@@ -13983,19 +13987,19 @@
         <v>20</v>
       </c>
       <c r="L237" s="8" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="M237" s="8"/>
       <c r="N237" s="8"/>
       <c r="O237" s="8"/>
       <c r="P237" s="9" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="Q237" s="8"/>
     </row>
-    <row r="238" spans="1:17">
+    <row r="238" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="B238" s="4">
         <v>19</v>
@@ -14007,13 +14011,13 @@
         <v>13</v>
       </c>
       <c r="E238" s="8" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="F238" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G238" s="8" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="H238" s="8" t="s">
         <v>34</v>
@@ -14025,20 +14029,20 @@
       <c r="K238" s="8"/>
       <c r="L238" s="8"/>
       <c r="M238" s="8" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="N238" s="9" t="s">
         <v>21</v>
       </c>
       <c r="O238" s="8"/>
       <c r="P238" s="9" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="Q238" s="8"/>
     </row>
-    <row r="239" spans="1:17" s="9" customFormat="1">
+    <row r="239" spans="1:17" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="B239" s="4">
         <v>19</v>
@@ -14050,13 +14054,13 @@
         <v>14</v>
       </c>
       <c r="E239" s="9" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="F239" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G239" s="5" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="H239" s="5" t="s">
         <v>24</v>
@@ -14065,9 +14069,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="240" spans="1:17">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="B240" s="4">
         <v>19</v>
@@ -14077,10 +14081,10 @@
       </c>
       <c r="D240" s="4"/>
       <c r="E240" s="8" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G240" s="4"/>
       <c r="H240" s="4"/>
@@ -14099,9 +14103,9 @@
       <c r="O240" s="4"/>
       <c r="P240" s="4"/>
     </row>
-    <row r="241" spans="1:17">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="B241" s="4">
         <v>19</v>
@@ -14111,7 +14115,7 @@
       </c>
       <c r="D241" s="4"/>
       <c r="E241" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F241" s="4" t="s">
         <v>49</v>
@@ -14133,9 +14137,9 @@
       <c r="O241" s="4"/>
       <c r="P241" s="4"/>
     </row>
-    <row r="242" spans="1:17">
+    <row r="242" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="B242" s="8">
         <v>20</v>
@@ -14145,7 +14149,7 @@
       </c>
       <c r="D242" s="8"/>
       <c r="E242" s="8" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F242" s="8" t="s">
         <v>109</v>
@@ -14165,14 +14169,14 @@
       <c r="M242" s="8"/>
       <c r="N242" s="8"/>
       <c r="O242" s="8" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="P242" s="8"/>
       <c r="Q242" s="8"/>
     </row>
-    <row r="243" spans="1:17">
+    <row r="243" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="B243" s="8">
         <v>20</v>
@@ -14184,16 +14188,16 @@
         <v>1</v>
       </c>
       <c r="E243" s="8" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F243" s="8" t="s">
         <v>109</v>
       </c>
       <c r="G243" s="8" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="H243" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I243" s="8" t="s">
         <v>26</v>
@@ -14202,20 +14206,20 @@
       <c r="K243" s="8"/>
       <c r="L243" s="8"/>
       <c r="M243" s="8" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="N243" s="8" t="s">
         <v>47</v>
       </c>
       <c r="O243" s="8" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="P243" s="8"/>
       <c r="Q243" s="8"/>
     </row>
-    <row r="244" spans="1:17">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="B244" s="8">
         <v>20</v>
@@ -14227,13 +14231,13 @@
         <v>2</v>
       </c>
       <c r="E244" s="8" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="F244" s="8" t="s">
         <v>109</v>
       </c>
       <c r="G244" s="8" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="H244" s="8" t="s">
         <v>24</v>
@@ -14245,20 +14249,20 @@
       <c r="K244" s="8"/>
       <c r="L244" s="8"/>
       <c r="M244" s="8" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N244" s="8" t="s">
         <v>47</v>
       </c>
       <c r="O244" s="8" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="P244" s="8"/>
       <c r="Q244" s="8"/>
     </row>
-    <row r="245" spans="1:17">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="B245" s="8">
         <v>20</v>
@@ -14270,13 +14274,13 @@
         <v>3</v>
       </c>
       <c r="E245" s="8" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="F245" s="8" t="s">
         <v>109</v>
       </c>
       <c r="G245" s="8" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="H245" s="8" t="s">
         <v>79</v>
@@ -14297,9 +14301,9 @@
       <c r="P245" s="8"/>
       <c r="Q245" s="8"/>
     </row>
-    <row r="246" spans="1:17">
+    <row r="246" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="B246" s="8">
         <v>20</v>
@@ -14311,13 +14315,13 @@
         <v>4</v>
       </c>
       <c r="E246" s="8" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="F246" s="8" t="s">
         <v>109</v>
       </c>
       <c r="G246" s="4" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="H246" s="4" t="s">
         <v>79</v>
@@ -14337,9 +14341,9 @@
       <c r="O246" s="4"/>
       <c r="P246" s="4"/>
     </row>
-    <row r="247" spans="1:17" s="10" customFormat="1">
+    <row r="247" spans="1:17" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="B247" s="8">
         <v>20</v>
@@ -14351,13 +14355,13 @@
         <v>5</v>
       </c>
       <c r="E247" s="9" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F247" s="9" t="s">
         <v>109</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="H247" s="5" t="s">
         <v>24</v>
@@ -14369,7 +14373,7 @@
       <c r="K247" s="5"/>
       <c r="L247" s="5"/>
       <c r="M247" s="5" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="N247" s="5" t="s">
         <v>27</v>
@@ -14377,9 +14381,9 @@
       <c r="O247" s="5"/>
       <c r="P247" s="5"/>
     </row>
-    <row r="248" spans="1:17" s="10" customFormat="1">
+    <row r="248" spans="1:17" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="B248" s="8">
         <v>20</v>
@@ -14391,13 +14395,13 @@
         <v>6</v>
       </c>
       <c r="E248" s="9" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="F248" s="9" t="s">
         <v>109</v>
       </c>
       <c r="G248" s="9" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="H248" s="9" t="s">
         <v>24</v>
@@ -14409,19 +14413,19 @@
       <c r="K248" s="5"/>
       <c r="L248" s="5"/>
       <c r="M248" s="5" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="N248" s="5" t="s">
         <v>27</v>
       </c>
       <c r="O248" s="5" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="P248" s="5"/>
     </row>
-    <row r="249" spans="1:17">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="B249" s="8">
         <v>20</v>
@@ -14433,13 +14437,13 @@
         <v>7</v>
       </c>
       <c r="E249" s="8" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F249" s="8" t="s">
         <v>109</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="H249" s="4" t="s">
         <v>79</v>
@@ -14457,13 +14461,13 @@
       <c r="M249" s="4"/>
       <c r="N249" s="4"/>
       <c r="O249" s="4" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="P249" s="4"/>
     </row>
-    <row r="250" spans="1:17">
+    <row r="250" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="B250" s="8">
         <v>20</v>
@@ -14475,13 +14479,13 @@
         <v>8</v>
       </c>
       <c r="E250" s="8" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="F250" s="8" t="s">
         <v>109</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="H250" s="4" t="s">
         <v>24</v>
@@ -14493,7 +14497,7 @@
       <c r="K250" s="4"/>
       <c r="L250" s="4"/>
       <c r="M250" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="N250" s="4" t="s">
         <v>47</v>
@@ -14501,9 +14505,9 @@
       <c r="O250" s="4"/>
       <c r="P250" s="4"/>
     </row>
-    <row r="251" spans="1:17">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="B251" s="8">
         <v>20</v>
@@ -14513,7 +14517,7 @@
       </c>
       <c r="D251" s="8"/>
       <c r="E251" s="8" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F251" s="8" t="s">
         <v>49</v>
@@ -14536,9 +14540,9 @@
       <c r="P251" s="8"/>
       <c r="Q251" s="8"/>
     </row>
-    <row r="252" spans="1:17">
+    <row r="252" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="B252" s="4">
         <v>21</v>
@@ -14548,10 +14552,10 @@
       </c>
       <c r="D252" s="4"/>
       <c r="E252" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F252" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G252" s="4"/>
       <c r="H252" s="4"/>
@@ -14567,14 +14571,14 @@
       </c>
       <c r="M252" s="4"/>
       <c r="N252" s="4" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="O252" s="4"/>
       <c r="P252" s="4"/>
     </row>
-    <row r="253" spans="1:17">
+    <row r="253" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="B253" s="4">
         <v>21</v>
@@ -14586,13 +14590,13 @@
         <v>1</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G253" s="5" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="H253" s="4" t="s">
         <v>24</v>
@@ -14604,15 +14608,15 @@
       <c r="K253" s="4"/>
       <c r="L253" s="4"/>
       <c r="M253" s="4" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="N253" s="4"/>
       <c r="O253" s="4"/>
       <c r="P253" s="4"/>
     </row>
-    <row r="254" spans="1:17">
+    <row r="254" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="B254" s="4">
         <v>21</v>
@@ -14624,13 +14628,13 @@
         <v>2</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F254" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="H254" s="5" t="s">
         <v>79</v>
@@ -14650,9 +14654,9 @@
       <c r="O254" s="4"/>
       <c r="P254" s="4"/>
     </row>
-    <row r="255" spans="1:17">
+    <row r="255" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="B255" s="4">
         <v>21</v>
@@ -14664,13 +14668,13 @@
         <v>3</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F255" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="H255" s="5" t="s">
         <v>79</v>
@@ -14690,9 +14694,9 @@
       <c r="O255" s="4"/>
       <c r="P255" s="4"/>
     </row>
-    <row r="256" spans="1:17">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="B256" s="4">
         <v>21</v>
@@ -14704,13 +14708,13 @@
         <v>4</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="H256" s="5" t="s">
         <v>34</v>
@@ -14732,9 +14736,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="257" spans="1:17">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="B257" s="4">
         <v>21</v>
@@ -14744,10 +14748,10 @@
       </c>
       <c r="D257" s="4"/>
       <c r="E257" s="4" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="G257" s="4"/>
       <c r="H257" s="4"/>
@@ -14766,9 +14770,9 @@
       <c r="O257" s="4"/>
       <c r="P257" s="4"/>
     </row>
-    <row r="258" spans="1:17">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="B258" s="4">
         <v>21</v>
@@ -14778,7 +14782,7 @@
       </c>
       <c r="D258" s="4"/>
       <c r="E258" s="4" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="F258" s="4" t="s">
         <v>49</v>
@@ -14800,9 +14804,9 @@
       <c r="O258" s="4"/>
       <c r="P258" s="4"/>
     </row>
-    <row r="259" spans="1:17">
+    <row r="259" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="B259" s="4">
         <v>22</v>
@@ -14812,10 +14816,10 @@
       </c>
       <c r="D259" s="4"/>
       <c r="E259" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F259" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G259" s="8"/>
       <c r="H259" s="6"/>
@@ -14832,14 +14836,14 @@
       <c r="M259" s="6"/>
       <c r="N259" s="8"/>
       <c r="O259" s="8" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="P259" s="8"/>
       <c r="Q259" s="8"/>
     </row>
-    <row r="260" spans="1:17">
+    <row r="260" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
       <c r="B260" s="4">
         <v>22</v>
@@ -14851,16 +14855,16 @@
         <v>1</v>
       </c>
       <c r="E260" s="8" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F260" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G260" s="8" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="H260" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I260" s="8" t="s">
         <v>26</v>
@@ -14869,7 +14873,7 @@
       <c r="K260" s="8"/>
       <c r="L260" s="8"/>
       <c r="M260" s="8" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="N260" s="8" t="s">
         <v>47</v>
@@ -14878,9 +14882,9 @@
       <c r="P260" s="8"/>
       <c r="Q260" s="8"/>
     </row>
-    <row r="261" spans="1:17">
+    <row r="261" spans="1:17" ht="210" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="B261" s="4">
         <v>22</v>
@@ -14892,13 +14896,13 @@
         <v>2</v>
       </c>
       <c r="E261" s="8" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="F261" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G261" s="8" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H261" s="8" t="s">
         <v>34</v>
@@ -14910,22 +14914,22 @@
       <c r="K261" s="8"/>
       <c r="L261" s="8"/>
       <c r="M261" s="8" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="N261" s="8" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="O261" s="25" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="P261" s="9" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="Q261" s="8"/>
     </row>
-    <row r="262" spans="1:17">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="B262" s="4">
         <v>22</v>
@@ -14937,13 +14941,13 @@
         <v>3</v>
       </c>
       <c r="E262" s="8" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F262" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G262" s="8" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="H262" s="8" t="s">
         <v>24</v>
@@ -14955,7 +14959,7 @@
       <c r="K262" s="8"/>
       <c r="L262" s="8"/>
       <c r="M262" s="8" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="N262" s="8" t="s">
         <v>94</v>
@@ -14964,9 +14968,9 @@
       <c r="P262" s="8"/>
       <c r="Q262" s="8"/>
     </row>
-    <row r="263" spans="1:17">
+    <row r="263" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="B263" s="4">
         <v>22</v>
@@ -14978,13 +14982,13 @@
         <v>4</v>
       </c>
       <c r="E263" s="8" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="F263" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G263" s="8" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="H263" s="8" t="s">
         <v>24</v>
@@ -14996,20 +15000,20 @@
       <c r="K263" s="8"/>
       <c r="L263" s="8"/>
       <c r="M263" s="8" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="N263" s="8" t="s">
         <v>21</v>
       </c>
       <c r="O263" s="8" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="P263" s="8"/>
       <c r="Q263" s="8"/>
     </row>
-    <row r="264" spans="1:17">
+    <row r="264" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="B264" s="4">
         <v>22</v>
@@ -15021,16 +15025,16 @@
         <v>5</v>
       </c>
       <c r="E264" s="8" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="F264" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G264" s="8" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="H264" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I264" s="8" t="s">
         <v>26</v>
@@ -15039,7 +15043,7 @@
       <c r="K264" s="8"/>
       <c r="L264" s="8"/>
       <c r="M264" s="8" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="N264" s="8" t="s">
         <v>21</v>
@@ -15048,9 +15052,9 @@
       <c r="P264" s="8"/>
       <c r="Q264" s="8"/>
     </row>
-    <row r="265" spans="1:17">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="B265" s="4">
         <v>22</v>
@@ -15060,7 +15064,7 @@
       </c>
       <c r="D265" s="4"/>
       <c r="E265" s="8" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="F265" s="8" t="s">
         <v>49</v>
@@ -15083,9 +15087,9 @@
       <c r="P265" s="8"/>
       <c r="Q265" s="8"/>
     </row>
-    <row r="266" spans="1:17">
+    <row r="266" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="B266" s="4">
         <v>23</v>
@@ -15095,10 +15099,10 @@
       </c>
       <c r="D266" s="4"/>
       <c r="E266" s="4" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="F266" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G266" s="4"/>
       <c r="H266" s="4"/>
@@ -15107,7 +15111,7 @@
       </c>
       <c r="J266" s="4"/>
       <c r="K266" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L266" s="4" t="s">
         <v>21</v>
@@ -15115,13 +15119,13 @@
       <c r="M266" s="4"/>
       <c r="N266" s="4"/>
       <c r="O266" s="4" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="P266" s="4"/>
     </row>
-    <row r="267" spans="1:17">
+    <row r="267" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="B267" s="4">
         <v>23</v>
@@ -15133,13 +15137,13 @@
         <v>1</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="F267" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G267" s="4" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="H267" s="4" t="s">
         <v>34</v>
@@ -15149,7 +15153,7 @@
       </c>
       <c r="J267" s="4"/>
       <c r="K267" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L267" s="4" t="s">
         <v>21</v>
@@ -15157,15 +15161,15 @@
       <c r="M267" s="4"/>
       <c r="N267" s="4"/>
       <c r="O267" s="4" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="P267" s="5" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="268" spans="1:17">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="B268" s="4">
         <v>23</v>
@@ -15177,13 +15181,13 @@
         <v>2</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G268" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H268" s="4" t="s">
         <v>34</v>
@@ -15202,12 +15206,12 @@
       <c r="N268" s="4"/>
       <c r="O268" s="4"/>
       <c r="P268" s="5" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="269" spans="1:17">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="B269" s="4">
         <v>23</v>
@@ -15217,10 +15221,10 @@
       </c>
       <c r="D269" s="4"/>
       <c r="E269" s="4" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="F269" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G269" s="4"/>
       <c r="H269" s="4"/>
@@ -15239,9 +15243,9 @@
       <c r="O269" s="4"/>
       <c r="P269" s="4"/>
     </row>
-    <row r="270" spans="1:17">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="B270" s="4">
         <v>23</v>
@@ -15251,7 +15255,7 @@
       </c>
       <c r="D270" s="4"/>
       <c r="E270" s="4" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="F270" s="4" t="s">
         <v>49</v>
@@ -15273,9 +15277,9 @@
       <c r="O270" s="4"/>
       <c r="P270" s="4"/>
     </row>
-    <row r="271" spans="1:17">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="B271" s="4">
         <v>24</v>
@@ -15285,10 +15289,10 @@
       </c>
       <c r="D271" s="4"/>
       <c r="E271" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F271" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G271" s="4"/>
       <c r="H271" s="4"/>
@@ -15305,13 +15309,13 @@
       <c r="M271" s="4"/>
       <c r="N271" s="4"/>
       <c r="O271" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="P271" s="4"/>
     </row>
-    <row r="272" spans="1:17">
+    <row r="272" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="B272" s="4">
         <v>24</v>
@@ -15323,13 +15327,13 @@
         <v>1</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="F272" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G272" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H272" s="4" t="s">
         <v>79</v>
@@ -15347,13 +15351,13 @@
       <c r="M272" s="4"/>
       <c r="N272" s="4"/>
       <c r="O272" s="4" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="P272" s="4"/>
     </row>
-    <row r="273" spans="1:16">
+    <row r="273" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="B273" s="4">
         <v>24</v>
@@ -15365,13 +15369,13 @@
         <v>2</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="F273" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G273" s="4" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="H273" s="4" t="s">
         <v>34</v>
@@ -15383,19 +15387,19 @@
       <c r="K273" s="4"/>
       <c r="L273" s="4"/>
       <c r="M273" s="4" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="N273" s="4" t="s">
         <v>27</v>
       </c>
       <c r="O273" s="4"/>
       <c r="P273" s="5" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="274" spans="1:16">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="B274" s="4">
         <v>24</v>
@@ -15405,10 +15409,10 @@
       </c>
       <c r="D274" s="4"/>
       <c r="E274" s="4" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="F274" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G274" s="4"/>
       <c r="H274" s="4"/>
@@ -15427,9 +15431,9 @@
       <c r="O274" s="4"/>
       <c r="P274" s="4"/>
     </row>
-    <row r="275" spans="1:16">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="B275" s="4">
         <v>24</v>
@@ -15439,13 +15443,13 @@
       </c>
       <c r="D275" s="4"/>
       <c r="E275" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F275" s="4" t="s">
         <v>49</v>
       </c>
       <c r="G275" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H275" s="4"/>
       <c r="I275" s="4" t="s">
@@ -15463,9 +15467,9 @@
       <c r="O275" s="4"/>
       <c r="P275" s="4"/>
     </row>
-    <row r="276" spans="1:16">
+    <row r="276" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="B276" s="4">
         <v>25</v>
@@ -15475,10 +15479,10 @@
       </c>
       <c r="D276" s="4"/>
       <c r="E276" s="4" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G276" s="4"/>
       <c r="H276" s="4"/>
@@ -15495,13 +15499,13 @@
       <c r="M276" s="4"/>
       <c r="N276" s="4"/>
       <c r="O276" s="4" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="P276" s="4"/>
     </row>
-    <row r="277" spans="1:16">
+    <row r="277" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="B277" s="4">
         <v>25</v>
@@ -15513,13 +15517,13 @@
         <v>1</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="F277" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G277" s="4" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="H277" s="4" t="s">
         <v>24</v>
@@ -15531,15 +15535,15 @@
       <c r="K277" s="4"/>
       <c r="L277" s="4"/>
       <c r="M277" s="4" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="N277" s="4"/>
       <c r="O277" s="4"/>
       <c r="P277" s="4"/>
     </row>
-    <row r="278" spans="1:16">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="B278" s="4">
         <v>25</v>
@@ -15551,13 +15555,13 @@
         <v>2</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="F278" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G278" s="4" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="H278" s="4" t="s">
         <v>24</v>
@@ -15569,17 +15573,17 @@
       <c r="K278" s="4"/>
       <c r="L278" s="4"/>
       <c r="M278" s="4" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="N278" s="4"/>
       <c r="O278" s="4" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="P278" s="4"/>
     </row>
-    <row r="279" spans="1:16" s="10" customFormat="1">
+    <row r="279" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="B279" s="4">
         <v>25</v>
@@ -15591,13 +15595,13 @@
         <v>3</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="F279" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="H279" s="5" t="s">
         <v>24</v>
@@ -15609,7 +15613,7 @@
       <c r="K279" s="5"/>
       <c r="L279" s="5"/>
       <c r="M279" s="5" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="N279" s="5" t="s">
         <v>27</v>
@@ -15617,9 +15621,9 @@
       <c r="O279" s="5"/>
       <c r="P279" s="5"/>
     </row>
-    <row r="280" spans="1:16">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="B280" s="4">
         <v>25</v>
@@ -15629,7 +15633,7 @@
       </c>
       <c r="D280" s="4"/>
       <c r="E280" s="4" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F280" s="4" t="s">
         <v>49</v>
@@ -15651,9 +15655,9 @@
       <c r="O280" s="4"/>
       <c r="P280" s="4"/>
     </row>
-    <row r="281" spans="1:16">
+    <row r="281" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="B281" s="4">
         <v>26</v>
@@ -15663,10 +15667,10 @@
       </c>
       <c r="D281" s="4"/>
       <c r="E281" s="4" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="F281" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G281" s="4"/>
       <c r="H281" s="4"/>
@@ -15683,13 +15687,13 @@
       <c r="M281" s="4"/>
       <c r="N281" s="4"/>
       <c r="O281" s="4" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="P281" s="4"/>
     </row>
-    <row r="282" spans="1:16">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="B282" s="4">
         <v>26</v>
@@ -15699,7 +15703,7 @@
       </c>
       <c r="D282" s="4"/>
       <c r="E282" s="4" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F282" s="4" t="s">
         <v>49</v>
@@ -15728,292 +15732,292 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="B20" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="B22" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="B26" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B30" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>79</v>
       </c>
       <c r="B31" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>831</v>
-      </c>
       <c r="B34" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B38" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B39" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B41" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
     </row>
   </sheetData>
@@ -16022,6 +16026,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001A0F63B27C220A4F8CFC531568F49C7E" ma:contentTypeVersion="1" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="a625b6f39fe2643b0de9c4a0abf7dc08">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="70fe5f22-a7a7-4e9f-8d6c-bb9468cc4697" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b613bb32ae260e84eec2f581a66302c2" ns3:_="">
     <xsd:import namespace="70fe5f22-a7a7-4e9f-8d6c-bb9468cc4697"/>
@@ -16161,15 +16174,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement/>
@@ -16177,6 +16181,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C69AA59F-F221-4D74-BCA0-044F65DF73A4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A6044F-776A-4661-89D7-7B2CF173CCA8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16194,14 +16206,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C69AA59F-F221-4D74-BCA0-044F65DF73A4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499B5B90-442F-4816-937F-9C4CF35BBF36}">
   <ds:schemaRefs>
